--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D2A68-2949-4805-9BE0-1C917E81AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC438C5C-5E46-46E4-91CA-2319122A9630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="107">
   <si>
     <t>20.btm.0.0</t>
   </si>
@@ -312,6 +312,54 @@
   <si>
     <t>map5</t>
   </si>
+  <si>
+    <t>cat.0.0</t>
+  </si>
+  <si>
+    <t>arb_Arab.cat.0.0</t>
+  </si>
+  <si>
+    <t>deu_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>fra_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.cat.0.0</t>
+  </si>
+  <si>
+    <t>zho_Hans.cat.0.0</t>
+  </si>
+  <si>
+    <t>spa_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.cat.0.0</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>arabic.cat</t>
+  </si>
+  <si>
+    <t>german.cat</t>
+  </si>
+  <si>
+    <t>french.cat</t>
+  </si>
+  <si>
+    <t>farsi.cat</t>
+  </si>
+  <si>
+    <t>chinese.cat</t>
+  </si>
+  <si>
+    <t>spanish.cat</t>
+  </si>
+  <si>
+    <t>all.cat</t>
+  </si>
 </sst>
 </file>
 
@@ -498,12 +546,6 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -518,15 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,6 +596,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F85FE2-0E4A-4FDA-8B9D-4C7A407A54D4}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,6 +4591,615 @@
         <v>2.6315789473684002E-3</v>
       </c>
     </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133" t="s">
+        <v>93</v>
+      </c>
+      <c r="E133" t="s">
+        <v>94</v>
+      </c>
+      <c r="F133" t="s">
+        <v>95</v>
+      </c>
+      <c r="G133" t="s">
+        <v>96</v>
+      </c>
+      <c r="H133" t="s">
+        <v>97</v>
+      </c>
+      <c r="I133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C134">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D134">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E134">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F134">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G134">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H134">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I134">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135">
+        <v>0.16814159292035391</v>
+      </c>
+      <c r="C135">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="D135">
+        <v>0.16707964601769909</v>
+      </c>
+      <c r="E135">
+        <v>0.1656637168141592</v>
+      </c>
+      <c r="F135">
+        <v>0.16424778761061939</v>
+      </c>
+      <c r="G135">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="H135">
+        <v>0.16690265486725661</v>
+      </c>
+      <c r="I135">
+        <v>0.16353982300884939</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136">
+        <v>8.5132743362831803E-2</v>
+      </c>
+      <c r="C136">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="D136">
+        <v>8.4867256637168098E-2</v>
+      </c>
+      <c r="E136">
+        <v>8.3893805309734504E-2</v>
+      </c>
+      <c r="F136">
+        <v>8.3628318584070799E-2</v>
+      </c>
+      <c r="G136">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="H136">
+        <v>8.4513274336283098E-2</v>
+      </c>
+      <c r="I136">
+        <v>8.3097345132743305E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>8.7433628318583992E-3</v>
+      </c>
+      <c r="C137">
+        <v>8.6460176991149992E-3</v>
+      </c>
+      <c r="D137">
+        <v>8.6637168141592003E-3</v>
+      </c>
+      <c r="E137">
+        <v>8.6283185840707998E-3</v>
+      </c>
+      <c r="F137">
+        <v>8.7079646017698999E-3</v>
+      </c>
+      <c r="G137">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="H137">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="I137">
+        <v>8.6017699115044002E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C138">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D138">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E138">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F138">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G138">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H138">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I138">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="C139">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="D139">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="E139">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="F139">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="G139">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="H139">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="I139">
+        <v>0.81769911504424775</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="C140">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="D140">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="E140">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="F140">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="G140">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="H140">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="I140">
+        <v>0.83097345132743372</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>0.87433628318584078</v>
+      </c>
+      <c r="C141">
+        <v>0.86460176991150439</v>
+      </c>
+      <c r="D141">
+        <v>0.86637168141592924</v>
+      </c>
+      <c r="E141">
+        <v>0.86283185840707977</v>
+      </c>
+      <c r="F141">
+        <v>0.87079646017699108</v>
+      </c>
+      <c r="G141">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="H141">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="I141">
+        <v>0.86017699115044244</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C142">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D142">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E142">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F142">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G142">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H142">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I142">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>0.75223240980849693</v>
+      </c>
+      <c r="C143">
+        <v>0.7415343956944036</v>
+      </c>
+      <c r="D143">
+        <v>0.74921276764635736</v>
+      </c>
+      <c r="E143">
+        <v>0.74143207160270697</v>
+      </c>
+      <c r="F143">
+        <v>0.73728826916094825</v>
+      </c>
+      <c r="G143">
+        <v>0.73909805936333373</v>
+      </c>
+      <c r="H143">
+        <v>0.75075982941528285</v>
+      </c>
+      <c r="I143">
+        <v>0.73668125318101874</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144">
+        <v>0.75565007805945172</v>
+      </c>
+      <c r="C144">
+        <v>0.7458116242261299</v>
+      </c>
+      <c r="D144">
+        <v>0.75361302681350373</v>
+      </c>
+      <c r="E144">
+        <v>0.74491872960937111</v>
+      </c>
+      <c r="F144">
+        <v>0.74232327273207699</v>
+      </c>
+      <c r="G144">
+        <v>0.74321829309646603</v>
+      </c>
+      <c r="H144">
+        <v>0.75441276183895867</v>
+      </c>
+      <c r="I144">
+        <v>0.74110394028228066</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145">
+        <v>0.76030110285253905</v>
+      </c>
+      <c r="C145">
+        <v>0.75128517689708219</v>
+      </c>
+      <c r="D145">
+        <v>0.75724205476213735</v>
+      </c>
+      <c r="E145">
+        <v>0.74978408834054755</v>
+      </c>
+      <c r="F145">
+        <v>0.74946048218436134</v>
+      </c>
+      <c r="G145">
+        <v>0.74882371759365562</v>
+      </c>
+      <c r="H145">
+        <v>0.75850986732845715</v>
+      </c>
+      <c r="I145">
+        <v>0.74677607454431738</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C146">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D146">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E146">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F146">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G146">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H146">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I146">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147">
+        <v>0.72185840707964599</v>
+      </c>
+      <c r="C147">
+        <v>0.71280235988200591</v>
+      </c>
+      <c r="D147">
+        <v>0.71952802359881995</v>
+      </c>
+      <c r="E147">
+        <v>0.71154867256637166</v>
+      </c>
+      <c r="F147">
+        <v>0.70839233038348071</v>
+      </c>
+      <c r="G147">
+        <v>0.70966076696165181</v>
+      </c>
+      <c r="H147">
+        <v>0.72190265486725658</v>
+      </c>
+      <c r="I147">
+        <v>0.70877581120943955</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148">
+        <v>0.72325677763730856</v>
+      </c>
+      <c r="C148">
+        <v>0.71472924568057306</v>
+      </c>
+      <c r="D148">
+        <v>0.72140679870768365</v>
+      </c>
+      <c r="E148">
+        <v>0.71301973591796597</v>
+      </c>
+      <c r="F148">
+        <v>0.7105734653743504</v>
+      </c>
+      <c r="G148">
+        <v>0.71142786908273625</v>
+      </c>
+      <c r="H148">
+        <v>0.7235391206630144</v>
+      </c>
+      <c r="I148">
+        <v>0.71067811490377863</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>0.72413532427085325</v>
+      </c>
+      <c r="C149">
+        <v>0.71570067085624189</v>
+      </c>
+      <c r="D149">
+        <v>0.72209482924078139</v>
+      </c>
+      <c r="E149">
+        <v>0.71394505844708278</v>
+      </c>
+      <c r="F149">
+        <v>0.71195529433083737</v>
+      </c>
+      <c r="G149">
+        <v>0.71240030930980858</v>
+      </c>
+      <c r="H149">
+        <v>0.72425221734611522</v>
+      </c>
+      <c r="I149">
+        <v>0.71162156178649771</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C150">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D150">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E150">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F150">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G150">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H150">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I150">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="C151">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="D151">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="E151">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="F151">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="G151">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="H151">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="I151">
+        <v>0.81769911504424775</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="C152">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="D152">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="E152">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="F152">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="G152">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="H152">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="I152">
+        <v>0.83097345132743372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153">
+        <v>0.87433628318584078</v>
+      </c>
+      <c r="C153">
+        <v>0.86460176991150439</v>
+      </c>
+      <c r="D153">
+        <v>0.86637168141592924</v>
+      </c>
+      <c r="E153">
+        <v>0.86283185840707977</v>
+      </c>
+      <c r="F153">
+        <v>0.87079646017699108</v>
+      </c>
+      <c r="G153">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="H153">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="I153">
+        <v>0.86017699115044244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4550,10 +5207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF62CF1-97FC-4058-A503-F60A3077AEA3}">
-  <dimension ref="A1:CJ83"/>
+  <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:CJ10"/>
+    <sheetView topLeftCell="B59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87:AG95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,94 +5246,94 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2" t="s">
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2" t="s">
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2" t="s">
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
+      <c r="BL1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2" t="s">
+      <c r="BM1" s="19"/>
+      <c r="BN1" s="19"/>
+      <c r="BO1" s="19"/>
+      <c r="BP1" s="19"/>
+      <c r="BQ1" s="19"/>
+      <c r="BR1" s="19"/>
+      <c r="BS1" s="19"/>
+      <c r="BT1" s="19"/>
+      <c r="BU1" s="19"/>
+      <c r="BV1" s="19"/>
+      <c r="BW1" s="19"/>
+      <c r="BX1" s="19"/>
+      <c r="BY1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19"/>
+      <c r="CD1" s="19"/>
+      <c r="CE1" s="19"/>
+      <c r="CF1" s="19"/>
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="19"/>
+      <c r="CJ1" s="19"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8468,7 +9125,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -8497,7 +9154,7 @@
         <v>1.9739058548339801E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -8526,7 +9183,7 @@
         <v>4.0207449662581898E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -8555,7 +9212,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -8584,7 +9241,7 @@
         <v>9.1839847594695004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -8613,7 +9270,7 @@
         <v>1.6739757807377499E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -8642,7 +9299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -8670,8 +9327,71 @@
       <c r="I72">
         <v>6.5789473684210004E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>6</v>
+      </c>
+      <c r="R72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S72" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" t="s">
+        <v>9</v>
+      </c>
+      <c r="U72" t="s">
+        <v>10</v>
+      </c>
+      <c r="V72" t="s">
+        <v>11</v>
+      </c>
+      <c r="W72" t="s">
+        <v>12</v>
+      </c>
+      <c r="X72" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -8699,8 +9419,71 @@
       <c r="I73">
         <v>3.9473684210519999E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>99</v>
+      </c>
+      <c r="M73">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="N73">
+        <v>0.16814159292035391</v>
+      </c>
+      <c r="O73">
+        <v>8.5132743362831803E-2</v>
+      </c>
+      <c r="P73">
+        <v>8.7433628318583992E-3</v>
+      </c>
+      <c r="Q73">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="R73">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="S73">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="T73">
+        <v>0.87433628318584078</v>
+      </c>
+      <c r="U73">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="V73">
+        <v>0.75223240980849693</v>
+      </c>
+      <c r="W73">
+        <v>0.75565007805945172</v>
+      </c>
+      <c r="X73">
+        <v>0.76030110285253905</v>
+      </c>
+      <c r="Y73">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="Z73">
+        <v>0.72185840707964599</v>
+      </c>
+      <c r="AA73">
+        <v>0.72325677763730856</v>
+      </c>
+      <c r="AB73">
+        <v>0.72413532427085325</v>
+      </c>
+      <c r="AC73">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="AD73">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="AE73">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="AF73">
+        <v>0.87433628318584078</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -8728,8 +9511,71 @@
       <c r="I74">
         <v>1.973684210526E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>100</v>
+      </c>
+      <c r="M74">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="N74">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="O74">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="P74">
+        <v>8.6460176991149992E-3</v>
+      </c>
+      <c r="Q74">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="R74">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="S74">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="T74">
+        <v>0.86460176991150439</v>
+      </c>
+      <c r="U74">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="V74">
+        <v>0.7415343956944036</v>
+      </c>
+      <c r="W74">
+        <v>0.7458116242261299</v>
+      </c>
+      <c r="X74">
+        <v>0.75128517689708219</v>
+      </c>
+      <c r="Y74">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="Z74">
+        <v>0.71280235988200591</v>
+      </c>
+      <c r="AA74">
+        <v>0.71472924568057306</v>
+      </c>
+      <c r="AB74">
+        <v>0.71570067085624189</v>
+      </c>
+      <c r="AC74">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="AD74">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="AE74">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="AF74">
+        <v>0.86460176991150439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -8757,8 +9603,71 @@
       <c r="I75" s="1">
         <v>3.4626038781163397E-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>101</v>
+      </c>
+      <c r="M75">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="N75">
+        <v>0.16707964601769909</v>
+      </c>
+      <c r="O75">
+        <v>8.4867256637168098E-2</v>
+      </c>
+      <c r="P75">
+        <v>8.6637168141592003E-3</v>
+      </c>
+      <c r="Q75">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="R75">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="S75">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="T75">
+        <v>0.86637168141592924</v>
+      </c>
+      <c r="U75">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="V75">
+        <v>0.74921276764635736</v>
+      </c>
+      <c r="W75">
+        <v>0.75361302681350373</v>
+      </c>
+      <c r="X75">
+        <v>0.75724205476213735</v>
+      </c>
+      <c r="Y75">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="Z75">
+        <v>0.71952802359881995</v>
+      </c>
+      <c r="AA75">
+        <v>0.72140679870768365</v>
+      </c>
+      <c r="AB75">
+        <v>0.72209482924078139</v>
+      </c>
+      <c r="AC75">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="AD75">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="AE75">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="AF75">
+        <v>0.86637168141592924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -8786,8 +9695,71 @@
       <c r="I76">
         <v>2.8133656509690002E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>102</v>
+      </c>
+      <c r="M76">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="N76">
+        <v>0.1656637168141592</v>
+      </c>
+      <c r="O76">
+        <v>8.3893805309734504E-2</v>
+      </c>
+      <c r="P76">
+        <v>8.6283185840707998E-3</v>
+      </c>
+      <c r="Q76">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="R76">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="S76">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="T76">
+        <v>0.86283185840707977</v>
+      </c>
+      <c r="U76">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="V76">
+        <v>0.74143207160270697</v>
+      </c>
+      <c r="W76">
+        <v>0.74491872960937111</v>
+      </c>
+      <c r="X76">
+        <v>0.74978408834054755</v>
+      </c>
+      <c r="Y76">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="Z76">
+        <v>0.71154867256637166</v>
+      </c>
+      <c r="AA76">
+        <v>0.71301973591796597</v>
+      </c>
+      <c r="AB76">
+        <v>0.71394505844708278</v>
+      </c>
+      <c r="AC76">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="AD76">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="AE76">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="AF76">
+        <v>0.86283185840707977</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -8815,8 +9787,71 @@
       <c r="I77">
         <v>2.8133656509690002E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>103</v>
+      </c>
+      <c r="M77">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="N77">
+        <v>0.16424778761061939</v>
+      </c>
+      <c r="O77">
+        <v>8.3628318584070799E-2</v>
+      </c>
+      <c r="P77">
+        <v>8.7079646017698999E-3</v>
+      </c>
+      <c r="Q77">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="R77">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="S77">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="T77">
+        <v>0.87079646017699108</v>
+      </c>
+      <c r="U77">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="V77">
+        <v>0.73728826916094825</v>
+      </c>
+      <c r="W77">
+        <v>0.74232327273207699</v>
+      </c>
+      <c r="X77">
+        <v>0.74946048218436134</v>
+      </c>
+      <c r="Y77">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="Z77">
+        <v>0.70839233038348071</v>
+      </c>
+      <c r="AA77">
+        <v>0.7105734653743504</v>
+      </c>
+      <c r="AB77">
+        <v>0.71195529433083737</v>
+      </c>
+      <c r="AC77">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="AD77">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="AE77">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="AF77">
+        <v>0.87079646017699108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -8844,8 +9879,71 @@
       <c r="I78">
         <v>6.5789473684210004E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>104</v>
+      </c>
+      <c r="M78">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="N78">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="O78">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="P78">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="Q78">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="R78">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="S78">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="T78">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="U78">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="V78">
+        <v>0.73909805936333373</v>
+      </c>
+      <c r="W78">
+        <v>0.74321829309646603</v>
+      </c>
+      <c r="X78">
+        <v>0.74882371759365562</v>
+      </c>
+      <c r="Y78">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="Z78">
+        <v>0.70966076696165181</v>
+      </c>
+      <c r="AA78">
+        <v>0.71142786908273625</v>
+      </c>
+      <c r="AB78">
+        <v>0.71240030930980858</v>
+      </c>
+      <c r="AC78">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="AD78">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="AE78">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="AF78">
+        <v>0.86548672566371676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -8873,8 +9971,71 @@
       <c r="I79">
         <v>4.1858432456850001E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>105</v>
+      </c>
+      <c r="M79">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="N79">
+        <v>0.16690265486725661</v>
+      </c>
+      <c r="O79">
+        <v>8.4513274336283098E-2</v>
+      </c>
+      <c r="P79">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="Q79">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="R79">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="S79">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="T79">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="U79">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="V79">
+        <v>0.75075982941528285</v>
+      </c>
+      <c r="W79">
+        <v>0.75441276183895867</v>
+      </c>
+      <c r="X79">
+        <v>0.75850986732845715</v>
+      </c>
+      <c r="Y79">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="Z79">
+        <v>0.72190265486725658</v>
+      </c>
+      <c r="AA79">
+        <v>0.7235391206630144</v>
+      </c>
+      <c r="AB79">
+        <v>0.72425221734611522</v>
+      </c>
+      <c r="AC79">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="AD79">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="AE79">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="AF79">
+        <v>0.86548672566371676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -8902,8 +10063,71 @@
       <c r="I80">
         <v>3.1582097180499999E-4</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="N80">
+        <v>0.16353982300884939</v>
+      </c>
+      <c r="O80">
+        <v>8.3097345132743305E-2</v>
+      </c>
+      <c r="P80">
+        <v>8.6017699115044002E-3</v>
+      </c>
+      <c r="Q80">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="R80">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="S80">
+        <v>0.83097345132743372</v>
+      </c>
+      <c r="T80">
+        <v>0.86017699115044244</v>
+      </c>
+      <c r="U80">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="V80">
+        <v>0.73668125318101874</v>
+      </c>
+      <c r="W80">
+        <v>0.74110394028228066</v>
+      </c>
+      <c r="X80">
+        <v>0.74677607454431738</v>
+      </c>
+      <c r="Y80">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="Z80">
+        <v>0.70877581120943955</v>
+      </c>
+      <c r="AA80">
+        <v>0.71067811490377863</v>
+      </c>
+      <c r="AB80">
+        <v>0.71162156178649771</v>
+      </c>
+      <c r="AC80">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="AD80">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="AE80">
+        <v>0.83097345132743372</v>
+      </c>
+      <c r="AF80">
+        <v>0.86017699115044244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8932,7 +10156,7 @@
         <v>3.4626038781163397E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -8961,7 +10185,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -8990,14 +10214,1190 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" t="s">
+        <v>103</v>
+      </c>
+      <c r="G87" t="s">
+        <v>104</v>
+      </c>
+      <c r="H87" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" t="s">
+        <v>106</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>4</v>
+      </c>
+      <c r="P87" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>6</v>
+      </c>
+      <c r="R87" t="s">
+        <v>7</v>
+      </c>
+      <c r="S87" t="s">
+        <v>8</v>
+      </c>
+      <c r="T87" t="s">
+        <v>9</v>
+      </c>
+      <c r="U87" t="s">
+        <v>10</v>
+      </c>
+      <c r="V87" t="s">
+        <v>11</v>
+      </c>
+      <c r="W87" t="s">
+        <v>12</v>
+      </c>
+      <c r="X87" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C88">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D88">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E88">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F88">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G88">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H88">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I88">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="L88" t="s">
+        <v>99</v>
+      </c>
+      <c r="M88">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="N88">
+        <v>0.16814159292035391</v>
+      </c>
+      <c r="O88">
+        <v>8.5132743362831803E-2</v>
+      </c>
+      <c r="P88">
+        <v>8.7433628318583992E-3</v>
+      </c>
+      <c r="Q88">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="R88">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="S88">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="T88">
+        <v>0.87433628318584078</v>
+      </c>
+      <c r="U88">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="V88">
+        <v>0.75223240980849693</v>
+      </c>
+      <c r="W88">
+        <v>0.75565007805945172</v>
+      </c>
+      <c r="X88">
+        <v>0.76030110285253905</v>
+      </c>
+      <c r="Y88">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="Z88">
+        <v>0.72185840707964599</v>
+      </c>
+      <c r="AA88">
+        <v>0.72325677763730856</v>
+      </c>
+      <c r="AB88">
+        <v>0.72413532427085325</v>
+      </c>
+      <c r="AC88">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="AD88">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="AE88">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="AF88">
+        <v>0.87433628318584078</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>0.16814159292035391</v>
+      </c>
+      <c r="C89">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="D89">
+        <v>0.16707964601769909</v>
+      </c>
+      <c r="E89">
+        <v>0.1656637168141592</v>
+      </c>
+      <c r="F89">
+        <v>0.16424778761061939</v>
+      </c>
+      <c r="G89">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="H89">
+        <v>0.16690265486725661</v>
+      </c>
+      <c r="I89">
+        <v>0.16353982300884939</v>
+      </c>
+      <c r="L89" t="s">
+        <v>100</v>
+      </c>
+      <c r="M89">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="N89">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="O89">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="P89">
+        <v>8.6460176991149992E-3</v>
+      </c>
+      <c r="Q89">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="R89">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="S89">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="T89">
+        <v>0.86460176991150439</v>
+      </c>
+      <c r="U89">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="V89">
+        <v>0.7415343956944036</v>
+      </c>
+      <c r="W89">
+        <v>0.7458116242261299</v>
+      </c>
+      <c r="X89">
+        <v>0.75128517689708219</v>
+      </c>
+      <c r="Y89">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="Z89">
+        <v>0.71280235988200591</v>
+      </c>
+      <c r="AA89">
+        <v>0.71472924568057306</v>
+      </c>
+      <c r="AB89">
+        <v>0.71570067085624189</v>
+      </c>
+      <c r="AC89">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="AD89">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="AE89">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="AF89">
+        <v>0.86460176991150439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>8.5132743362831803E-2</v>
+      </c>
+      <c r="C90">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="D90">
+        <v>8.4867256637168098E-2</v>
+      </c>
+      <c r="E90">
+        <v>8.3893805309734504E-2</v>
+      </c>
+      <c r="F90">
+        <v>8.3628318584070799E-2</v>
+      </c>
+      <c r="G90">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="H90">
+        <v>8.4513274336283098E-2</v>
+      </c>
+      <c r="I90">
+        <v>8.3097345132743305E-2</v>
+      </c>
+      <c r="L90" t="s">
+        <v>101</v>
+      </c>
+      <c r="M90">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="N90">
+        <v>0.16707964601769909</v>
+      </c>
+      <c r="O90">
+        <v>8.4867256637168098E-2</v>
+      </c>
+      <c r="P90">
+        <v>8.6637168141592003E-3</v>
+      </c>
+      <c r="Q90">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="R90">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="S90">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="T90">
+        <v>0.86637168141592924</v>
+      </c>
+      <c r="U90">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="V90">
+        <v>0.74921276764635736</v>
+      </c>
+      <c r="W90">
+        <v>0.75361302681350373</v>
+      </c>
+      <c r="X90">
+        <v>0.75724205476213735</v>
+      </c>
+      <c r="Y90">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="Z90">
+        <v>0.71952802359881995</v>
+      </c>
+      <c r="AA90">
+        <v>0.72140679870768365</v>
+      </c>
+      <c r="AB90">
+        <v>0.72209482924078139</v>
+      </c>
+      <c r="AC90">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="AD90">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="AE90">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="AF90">
+        <v>0.86637168141592924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>8.7433628318583992E-3</v>
+      </c>
+      <c r="C91">
+        <v>8.6460176991149992E-3</v>
+      </c>
+      <c r="D91">
+        <v>8.6637168141592003E-3</v>
+      </c>
+      <c r="E91">
+        <v>8.6283185840707998E-3</v>
+      </c>
+      <c r="F91">
+        <v>8.7079646017698999E-3</v>
+      </c>
+      <c r="G91">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="H91">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="I91">
+        <v>8.6017699115044002E-3</v>
+      </c>
+      <c r="L91" t="s">
+        <v>102</v>
+      </c>
+      <c r="M91">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="N91">
+        <v>0.1656637168141592</v>
+      </c>
+      <c r="O91">
+        <v>8.3893805309734504E-2</v>
+      </c>
+      <c r="P91">
+        <v>8.6283185840707998E-3</v>
+      </c>
+      <c r="Q91">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="R91">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="S91">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="T91">
+        <v>0.86283185840707977</v>
+      </c>
+      <c r="U91">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="V91">
+        <v>0.74143207160270697</v>
+      </c>
+      <c r="W91">
+        <v>0.74491872960937111</v>
+      </c>
+      <c r="X91">
+        <v>0.74978408834054755</v>
+      </c>
+      <c r="Y91">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="Z91">
+        <v>0.71154867256637166</v>
+      </c>
+      <c r="AA91">
+        <v>0.71301973591796597</v>
+      </c>
+      <c r="AB91">
+        <v>0.71394505844708278</v>
+      </c>
+      <c r="AC91">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="AD91">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="AE91">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="AF91">
+        <v>0.86283185840707977</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C92">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D92">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E92">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F92">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G92">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H92">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I92">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="L92" t="s">
+        <v>103</v>
+      </c>
+      <c r="M92">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="N92">
+        <v>0.16424778761061939</v>
+      </c>
+      <c r="O92">
+        <v>8.3628318584070799E-2</v>
+      </c>
+      <c r="P92">
+        <v>8.7079646017698999E-3</v>
+      </c>
+      <c r="Q92">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="R92">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="S92">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="T92">
+        <v>0.87079646017699108</v>
+      </c>
+      <c r="U92">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="V92">
+        <v>0.73728826916094825</v>
+      </c>
+      <c r="W92">
+        <v>0.74232327273207699</v>
+      </c>
+      <c r="X92">
+        <v>0.74946048218436134</v>
+      </c>
+      <c r="Y92">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="Z92">
+        <v>0.70839233038348071</v>
+      </c>
+      <c r="AA92">
+        <v>0.7105734653743504</v>
+      </c>
+      <c r="AB92">
+        <v>0.71195529433083737</v>
+      </c>
+      <c r="AC92">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="AD92">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="AE92">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="AF92">
+        <v>0.87079646017699108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="C93">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="D93">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="E93">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="F93">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="G93">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="H93">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="I93">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="L93" t="s">
+        <v>104</v>
+      </c>
+      <c r="M93">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="N93">
+        <v>0.16495575221238931</v>
+      </c>
+      <c r="O93">
+        <v>8.3716814159291997E-2</v>
+      </c>
+      <c r="P93">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="Q93">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="R93">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="S93">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="T93">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="U93">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="V93">
+        <v>0.73909805936333373</v>
+      </c>
+      <c r="W93">
+        <v>0.74321829309646603</v>
+      </c>
+      <c r="X93">
+        <v>0.74882371759365562</v>
+      </c>
+      <c r="Y93">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="Z93">
+        <v>0.70966076696165181</v>
+      </c>
+      <c r="AA93">
+        <v>0.71142786908273625</v>
+      </c>
+      <c r="AB93">
+        <v>0.71240030930980858</v>
+      </c>
+      <c r="AC93">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="AD93">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="AE93">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="AF93">
+        <v>0.86548672566371676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="C94">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="D94">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="E94">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="F94">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="G94">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="H94">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="I94">
+        <v>0.83097345132743372</v>
+      </c>
+      <c r="L94" t="s">
+        <v>105</v>
+      </c>
+      <c r="M94">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="N94">
+        <v>0.16690265486725661</v>
+      </c>
+      <c r="O94">
+        <v>8.4513274336283098E-2</v>
+      </c>
+      <c r="P94">
+        <v>8.6548672566371006E-3</v>
+      </c>
+      <c r="Q94">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="R94">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="S94">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="T94">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="U94">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="V94">
+        <v>0.75075982941528285</v>
+      </c>
+      <c r="W94">
+        <v>0.75441276183895867</v>
+      </c>
+      <c r="X94">
+        <v>0.75850986732845715</v>
+      </c>
+      <c r="Y94">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="Z94">
+        <v>0.72190265486725658</v>
+      </c>
+      <c r="AA94">
+        <v>0.7235391206630144</v>
+      </c>
+      <c r="AB94">
+        <v>0.72425221734611522</v>
+      </c>
+      <c r="AC94">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="AD94">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="AE94">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="AF94">
+        <v>0.86548672566371676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>0.87433628318584078</v>
+      </c>
+      <c r="C95">
+        <v>0.86460176991150439</v>
+      </c>
+      <c r="D95">
+        <v>0.86637168141592924</v>
+      </c>
+      <c r="E95">
+        <v>0.86283185840707977</v>
+      </c>
+      <c r="F95">
+        <v>0.87079646017699108</v>
+      </c>
+      <c r="G95">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="H95">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="I95">
+        <v>0.86017699115044244</v>
+      </c>
+      <c r="L95" t="s">
+        <v>106</v>
+      </c>
+      <c r="M95">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="N95">
+        <v>0.16353982300884939</v>
+      </c>
+      <c r="O95">
+        <v>8.3097345132743305E-2</v>
+      </c>
+      <c r="P95">
+        <v>8.6017699115044002E-3</v>
+      </c>
+      <c r="Q95">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="R95">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="S95">
+        <v>0.83097345132743372</v>
+      </c>
+      <c r="T95">
+        <v>0.86017699115044244</v>
+      </c>
+      <c r="U95">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="V95">
+        <v>0.73668125318101874</v>
+      </c>
+      <c r="W95">
+        <v>0.74110394028228066</v>
+      </c>
+      <c r="X95">
+        <v>0.74677607454431738</v>
+      </c>
+      <c r="Y95">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="Z95">
+        <v>0.70877581120943955</v>
+      </c>
+      <c r="AA95">
+        <v>0.71067811490377863</v>
+      </c>
+      <c r="AB95">
+        <v>0.71162156178649771</v>
+      </c>
+      <c r="AC95">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="AD95">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="AE95">
+        <v>0.83097345132743372</v>
+      </c>
+      <c r="AF95">
+        <v>0.86017699115044244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C96">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D96">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E96">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F96">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G96">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H96">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I96">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
+        <v>0.75223240980849693</v>
+      </c>
+      <c r="C97">
+        <v>0.7415343956944036</v>
+      </c>
+      <c r="D97">
+        <v>0.74921276764635736</v>
+      </c>
+      <c r="E97">
+        <v>0.74143207160270697</v>
+      </c>
+      <c r="F97">
+        <v>0.73728826916094825</v>
+      </c>
+      <c r="G97">
+        <v>0.73909805936333373</v>
+      </c>
+      <c r="H97">
+        <v>0.75075982941528285</v>
+      </c>
+      <c r="I97">
+        <v>0.73668125318101874</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98">
+        <v>0.75565007805945172</v>
+      </c>
+      <c r="C98">
+        <v>0.7458116242261299</v>
+      </c>
+      <c r="D98">
+        <v>0.75361302681350373</v>
+      </c>
+      <c r="E98">
+        <v>0.74491872960937111</v>
+      </c>
+      <c r="F98">
+        <v>0.74232327273207699</v>
+      </c>
+      <c r="G98">
+        <v>0.74321829309646603</v>
+      </c>
+      <c r="H98">
+        <v>0.75441276183895867</v>
+      </c>
+      <c r="I98">
+        <v>0.74110394028228066</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>0.76030110285253905</v>
+      </c>
+      <c r="C99">
+        <v>0.75128517689708219</v>
+      </c>
+      <c r="D99">
+        <v>0.75724205476213735</v>
+      </c>
+      <c r="E99">
+        <v>0.74978408834054755</v>
+      </c>
+      <c r="F99">
+        <v>0.74946048218436134</v>
+      </c>
+      <c r="G99">
+        <v>0.74882371759365562</v>
+      </c>
+      <c r="H99">
+        <v>0.75850986732845715</v>
+      </c>
+      <c r="I99">
+        <v>0.74677607454431738</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C100">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D100">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E100">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F100">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G100">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H100">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I100">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101">
+        <v>0.72185840707964599</v>
+      </c>
+      <c r="C101">
+        <v>0.71280235988200591</v>
+      </c>
+      <c r="D101">
+        <v>0.71952802359881995</v>
+      </c>
+      <c r="E101">
+        <v>0.71154867256637166</v>
+      </c>
+      <c r="F101">
+        <v>0.70839233038348071</v>
+      </c>
+      <c r="G101">
+        <v>0.70966076696165181</v>
+      </c>
+      <c r="H101">
+        <v>0.72190265486725658</v>
+      </c>
+      <c r="I101">
+        <v>0.70877581120943955</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>0.72325677763730856</v>
+      </c>
+      <c r="C102">
+        <v>0.71472924568057306</v>
+      </c>
+      <c r="D102">
+        <v>0.72140679870768365</v>
+      </c>
+      <c r="E102">
+        <v>0.71301973591796597</v>
+      </c>
+      <c r="F102">
+        <v>0.7105734653743504</v>
+      </c>
+      <c r="G102">
+        <v>0.71142786908273625</v>
+      </c>
+      <c r="H102">
+        <v>0.7235391206630144</v>
+      </c>
+      <c r="I102">
+        <v>0.71067811490377863</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103">
+        <v>0.72413532427085325</v>
+      </c>
+      <c r="C103">
+        <v>0.71570067085624189</v>
+      </c>
+      <c r="D103">
+        <v>0.72209482924078139</v>
+      </c>
+      <c r="E103">
+        <v>0.71394505844708278</v>
+      </c>
+      <c r="F103">
+        <v>0.71195529433083737</v>
+      </c>
+      <c r="G103">
+        <v>0.71240030930980858</v>
+      </c>
+      <c r="H103">
+        <v>0.72425221734611522</v>
+      </c>
+      <c r="I103">
+        <v>0.71162156178649771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="C104">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="D104">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="E104">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="F104">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="G104">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="H104">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="I104">
+        <v>0.62300884955752212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="C105">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="D105">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="E105">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="F105">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="G105">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="H105">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="I105">
+        <v>0.81769911504424775</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106">
+        <v>0.85132743362831853</v>
+      </c>
+      <c r="C106">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="D106">
+        <v>0.84867256637168142</v>
+      </c>
+      <c r="E106">
+        <v>0.83893805309734515</v>
+      </c>
+      <c r="F106">
+        <v>0.83628318584070804</v>
+      </c>
+      <c r="G106">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="H106">
+        <v>0.84513274336283184</v>
+      </c>
+      <c r="I106">
+        <v>0.83097345132743372</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107">
+        <v>0.87433628318584078</v>
+      </c>
+      <c r="C107">
+        <v>0.86460176991150439</v>
+      </c>
+      <c r="D107">
+        <v>0.86637168141592924</v>
+      </c>
+      <c r="E107">
+        <v>0.86283185840707977</v>
+      </c>
+      <c r="F107">
+        <v>0.87079646017699108</v>
+      </c>
+      <c r="G107">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="H107">
+        <v>0.86548672566371676</v>
+      </c>
+      <c r="I107">
+        <v>0.86017699115044244</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="BY1:CJ1"/>
     <mergeCell ref="M1:X1"/>
     <mergeCell ref="Y1:AJ1"/>
     <mergeCell ref="AK1:AX1"/>
     <mergeCell ref="AY1:BK1"/>
     <mergeCell ref="BL1:BX1"/>
-    <mergeCell ref="BY1:CJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9005,10 +11405,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEBD0B-6C2A-4EF8-8936-3C4C027D1B7C}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9017,747 +11417,862 @@
     <col min="2" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="9" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="13" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="Z2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="13">
         <v>0.24276315789473599</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>0.28452070042530497</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="13">
         <v>0.25565317791546799</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="13">
         <v>0.21111326097756999</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="10">
         <v>0.17171052631578901</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="10">
         <v>0.23606428351580699</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="10">
         <v>0.199469646576236</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="10">
         <v>0.15582840736710199</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="10">
         <v>3.6842105263157898E-2</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="10">
         <v>9.4113930659983205E-2</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="10">
         <v>6.8155989095493405E-2</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="10">
         <v>4.9521329365079303E-2</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="10">
         <v>9.8684210526315003E-3</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="10">
         <v>1.33067042606516E-2</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="10">
         <v>1.1502340467092999E-2</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="10">
         <v>8.5844820384293995E-3</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="18">
         <v>9.8684210526315003E-3</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="10">
         <v>3.07469933690501E-2</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="10">
         <v>2.21064110823962E-2</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="10">
         <v>1.39577202431686E-2</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="10">
         <v>0</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="10">
         <v>2.1929824561399999E-4</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="10">
         <v>1.194353898272E-4</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="10">
         <v>4.3859649122807001E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="Z3">
+        <v>0.62920353982300892</v>
+      </c>
+      <c r="AA3">
+        <v>0.84070796460176989</v>
+      </c>
+      <c r="AB3">
+        <v>0.75223240980849693</v>
+      </c>
+      <c r="AC3">
+        <v>0.72185840707964599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="11">
         <v>0.198026315789473</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>0.26555078385757003</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="11">
         <v>0.22699211076867201</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <v>0.18068549584520799</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="11">
         <v>0.17434210526315699</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>0.22359117365782799</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="11">
         <v>0.194530030073128</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="11">
         <v>0.15605029752744401</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="11">
         <v>0.201973684210526</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="11">
         <v>0.199407243552846</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="11">
         <v>0.18632168918029099</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="15">
         <v>0.15394875601212099</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="11">
         <v>1.71052631578947E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="11">
         <v>3.11595573939756E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="11">
         <v>2.4773519950457901E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="11">
         <v>1.7136987448275499E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="11">
         <v>4.6052631578947E-3</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="11">
         <v>3.0920234543849501E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="11">
         <v>2.0290460966567999E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="11">
         <v>1.1604505475480101E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="11">
         <v>0</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="11">
         <v>5.9808612440191301E-5</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="11">
         <v>9.6097598580727897E-5</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="11">
         <v>1.49521531100478E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="Z4">
+        <v>0.62035398230088501</v>
+      </c>
+      <c r="AA4">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="AB4">
+        <v>0.73909805936333373</v>
+      </c>
+      <c r="AC4">
+        <v>0.70966076696165181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="11">
         <v>0.17697368421052601</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>0.28028632061613301</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="11">
         <v>0.23221305498074299</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>0.18384368210947999</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="11">
         <v>0.16644736842105201</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>0.223800551268522</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <v>0.19196229499890799</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="11">
         <v>0.15217369149298601</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="11">
         <v>0.12894736842105201</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="11">
         <v>0.191248939291702</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="11">
         <v>0.16040093569924299</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="11">
         <v>0.12546536979102699</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="11">
         <v>1.38157894736842E-2</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="11">
         <v>4.5276661050553002E-2</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="11">
         <v>3.2386515225253501E-2</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="11">
         <v>2.18817661927945E-2</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="16">
         <v>1.0526315789473601E-2</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="16">
         <v>4.9266440603871302E-2</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="16">
         <v>3.12189793010751E-2</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="16">
         <v>1.9426363860054901E-2</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="15">
         <v>6.5789473684210004E-4</v>
       </c>
-      <c r="W5" s="20">
+      <c r="W5" s="15">
         <v>1.3157894736842001E-3</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="15">
         <v>8.2463443804659995E-4</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="15">
         <v>4.4956140350869999E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="Z5">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="AA5">
+        <v>0.82123893805309733</v>
+      </c>
+      <c r="AB5">
+        <v>0.73728826916094825</v>
+      </c>
+      <c r="AC5">
+        <v>0.70839233038348071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="15">
         <v>0.24078947368421</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>0.28662228487886299</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>0.25482289273786402</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>0.20733877662907199</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="11">
         <v>0.167763157894736</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>0.233609544695071</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>0.19798443736882401</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <v>0.157334947612085</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="11">
         <v>0.172368421052631</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="15">
         <v>0.22177782186265499</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="15">
         <v>0.19091344356343201</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="11">
         <v>0.15104616912148</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="11">
         <v>2.43421052631578E-2</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="11">
         <v>4.1483272325550699E-2</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="11">
         <v>3.42246666044018E-2</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="11">
         <v>2.5668154761904701E-2</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="11">
         <v>2.6315789473684002E-3</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="11">
         <v>2.49814017161662E-2</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="11">
         <v>1.52692633507669E-2</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="11">
         <v>6.6513706985918998E-3</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="11">
         <v>0</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="11">
         <v>6.5789473684210004E-4</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="11">
         <v>4.1508536419170001E-4</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="11">
         <v>3.2894736842099999E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="Z6">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="AA6">
+        <v>0.82477876106194681</v>
+      </c>
+      <c r="AB6">
+        <v>0.7415343956944036</v>
+      </c>
+      <c r="AC6">
+        <v>0.71280235988200591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <v>0.16447368421052599</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>0.25328940123434501</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>0.20675327428688201</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>0.16165221368895999</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="11">
         <v>0.15723684210526301</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>0.209034232061413</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="11">
         <v>0.177268841802528</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="11">
         <v>0.13818786999396401</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="15">
         <v>0.19473684210526301</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="11">
         <v>0.203623100122407</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="11">
         <v>0.186167839824284</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="11">
         <v>0.148065659099159</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="11">
         <v>3.6184210526315701E-2</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="15">
         <v>6.4971873213736098E-2</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="15">
         <v>5.1460043980723499E-2</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="15">
         <v>3.7891647292573501E-2</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="11">
         <v>8.5526315789472996E-3</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="15">
         <v>3.6543804475764302E-2</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="15">
         <v>2.4987357447788301E-2</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="15">
         <v>1.5503568511359299E-2</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="11">
         <v>0</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="11">
         <v>0</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="11">
         <v>0</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="Z7">
+        <v>0.61946902654867253</v>
+      </c>
+      <c r="AA7">
+        <v>0.82831858407079628</v>
+      </c>
+      <c r="AB7">
+        <v>0.74143207160270697</v>
+      </c>
+      <c r="AC7">
+        <v>0.71154867256637166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="11">
         <v>0.17697368421052601</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>0.287643089731905</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="11">
         <v>0.23291505539718799</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>0.180538688102832</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <v>0.1875</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="15">
         <v>0.23497764047279199</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="15">
         <v>0.205589669867866</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="16">
         <v>0.166038523966415</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="11">
         <v>0.14671052631578901</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="11">
         <v>0.17148572918309701</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="11">
         <v>0.147403051932368</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="11">
         <v>0.11268014149593</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="15">
         <v>3.94736842105263E-2</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="11">
         <v>6.1653846788022597E-2</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="11">
         <v>4.8154269673090798E-2</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="11">
         <v>3.5116087001128497E-2</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="11">
         <v>3.2894736842105001E-3</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="11">
         <v>2.7247937023733401E-2</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="11">
         <v>1.6710604390926701E-2</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="11">
         <v>8.6009143980057996E-3</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="16">
         <v>1.3157894736842001E-3</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="16">
         <v>1.7593700159489001E-3</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="16">
         <v>1.5743402978295E-3</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="16">
         <v>1.2260765550239001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="Z8">
+        <v>0.62743362831858396</v>
+      </c>
+      <c r="AA8">
+        <v>0.83539823008849545</v>
+      </c>
+      <c r="AB8">
+        <v>0.74921276764635736</v>
+      </c>
+      <c r="AC8">
+        <v>0.71952802359881995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>0.19078947368421001</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>0.28531700688123801</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>0.23888075473256501</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>0.18898492805478601</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="11">
         <v>0.163815789473684</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>0.22655421448357699</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="11">
         <v>0.19469449109946499</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="11">
         <v>0.15301133659257701</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="11">
         <v>0.19144736842105201</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="11">
         <v>0.192166674026958</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="11">
         <v>0.18028352426972899</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="11">
         <v>0.14689398456460401</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="11">
         <v>3.8815789473684199E-2</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="11">
         <v>3.9133387196060299E-2</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="11">
         <v>3.7063921725273397E-2</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="11">
         <v>2.8621288693224198E-2</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="11">
         <v>6.5789473684210004E-4</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="11">
         <v>1.57468284831511E-2</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="11">
         <v>1.0753891318299499E-2</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="11">
         <v>4.6663447163792999E-3</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="11">
         <v>0</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="11">
         <v>2.850877192982E-4</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="11">
         <v>3.063565878964E-4</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="11">
         <v>1.3157894736839999E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="Z9">
+        <v>0.63274336283185839</v>
+      </c>
+      <c r="AA9">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="AB9">
+        <v>0.75075982941528285</v>
+      </c>
+      <c r="AC9">
+        <v>0.72190265486725658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>0.19934210526315699</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="14">
         <v>0.29188482445147901</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="12">
         <v>0.244547326615594</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="12">
         <v>0.19421831740352299</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="14">
         <v>0.192105263157894</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="14">
         <v>0.23855630653587701</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="14">
         <v>0.20759023286387199</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="17">
         <v>0.16578640576554299</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="14">
         <v>0.24868421052631501</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="14">
         <v>0.274053880387848</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="14">
         <v>0.248073422655502</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="14">
         <v>0.19559457364318</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="14">
         <v>7.1710526315789405E-2</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="14">
         <v>9.7143330565248806E-2</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="14">
         <v>8.1361926240573895E-2</v>
       </c>
-      <c r="Q10" s="19">
+      <c r="Q10" s="14">
         <v>6.13763537507045E-2</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="12">
         <v>1.3157894736842001E-3</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="12">
         <v>3.5479919434212998E-2</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="12">
         <v>1.9739058548339801E-2</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="12">
         <v>9.1839847594695004E-3</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10" s="17">
         <v>6.5789473684210004E-4</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="12">
         <v>2.8133656509690002E-4</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="12">
         <v>4.1858432456850001E-4</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="12">
         <v>8.8079986149584404E-5</v>
       </c>
+      <c r="Z10">
+        <v>0.62300884955752212</v>
+      </c>
+      <c r="AA10">
+        <v>0.81769911504424775</v>
+      </c>
+      <c r="AB10">
+        <v>0.73668125318101874</v>
+      </c>
+      <c r="AC10">
+        <v>0.70877581120943955</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
     <cfRule type="colorScale" priority="24">

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Restaurants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC438C5C-5E46-46E4-91CA-2319122A9630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DCBED-5053-FB47-B395-771BC02F3812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,17 +600,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,12 +938,12 @@
       <selection activeCell="A133" sqref="A133:I153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -966,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>0.192105263157894</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>8.5526315789473506E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>5.5657894736841997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>1.1467105263157799E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>0.114525375939849</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>0.23855630653587701</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>0.29961021598054099</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>0.55901930623623797</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>0.192105263157894</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>0.20759023286387199</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>0.229529939956577</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>0.29357079993723301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>0.114525375939849</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>0.16578640576554299</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>0.175719236070385</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>0.188284382665764</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1459,7 +1465,7 @@
         <v>0.192105263157894</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>0.37302631578947298</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>0.46447368421052598</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>0.77565789473684199</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1575,7 +1581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>0.10328947368421</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>6.2434210526315703E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>1.21973684210525E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>0.274053880387848</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>0.324775909301532</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>0.58298086426116102</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>0.248073422655502</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>0.26561493234702799</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>0.33126830755069298</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>0.19559457364318</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>0.20469629267005099</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>0.21849429484770799</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>0.45394736842105199</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>0.51907894736842097</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>0.79539473684210504</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2242,7 +2248,7 @@
         <v>0.103815789473684</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>6.6644736842105201E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>1.0809210526315701E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>0.29188482445147901</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>0.36307771896847302</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2416,7 +2422,7 @@
         <v>0.54116844566636801</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2480,7 @@
         <v>0.244547326615594</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>0.27071162393861398</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>0.31859333977014698</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>0.19421831740352299</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>0.20657291727735499</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>0.21773795183281</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>0.451315789473684</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>0.54276315789473595</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>0.75197368421052602</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>3.6447368421052603E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>2.60526315789473E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>7.8289473684209996E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>9.7143330565248806E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>0.14074735263966501</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3025,7 +3031,7 @@
         <v>0.38638084320650101</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>8.1361926240573895E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>9.7132169677947702E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>0.15386294485994301</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>6.13763537507045E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>6.8092234330894202E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>7.6910784646028393E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -3286,7 +3292,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -3315,7 +3321,7 @@
         <v>0.16578947368420999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>0.230263157894736</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>0.58552631578947301</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>1.4605263157894699E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3489,7 +3495,7 @@
         <v>1.8881578947368399E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>6.8026315789472998E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>3.5479919434212998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>8.7976462115139306E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>0.30324846754123003</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>1.9739058548339801E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>4.0207449662581898E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>9.3041857891330404E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>9.1839847594695004E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>1.6739757807377499E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>2.58446236854178E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -3895,7 +3901,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>7.0394736842105204E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>0.17697368421052601</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>0.50657894736842102</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>3.9473684210519999E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>1.973684210526E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>2.6315789473684198E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>3.4626038781163397E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>2.8133656509690002E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>2.8133656509690002E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4243,7 +4249,7 @@
         <v>4.4581024930740002E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>4.1858432456850001E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>3.1582097180499999E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>3.33331509043E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>3.4626038781163397E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>9.9828106450336305E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -4533,7 +4539,7 @@
         <v>1.9736842105262998E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>1.9736842105262998E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>2.6315789473684002E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>2</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>0.16353982300884939</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -4707,7 +4713,7 @@
         <v>8.3097345132743305E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>8.6017699115044002E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -4765,7 +4771,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4794,7 +4800,7 @@
         <v>0.81769911504424775</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -4823,7 +4829,7 @@
         <v>0.83097345132743372</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>0.86017699115044244</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -4910,7 +4916,7 @@
         <v>0.73668125318101874</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>0.74110394028228066</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>0.74677607454431738</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -4997,7 +5003,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5032,7 @@
         <v>0.70877581120943955</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>0.71067811490377863</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>0.71162156178649771</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>18</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>0.81769911504424775</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -5171,7 +5177,7 @@
         <v>0.83097345132743372</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -5209,16 +5215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF62CF1-97FC-4058-A503-F60A3077AEA3}">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView topLeftCell="B59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87:AG95"/>
+    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5335,7 +5341,7 @@
       <c r="CI1" s="19"/>
       <c r="CJ1" s="19"/>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5855,7 +5861,7 @@
         <v>1.0599415204669999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>2.861379300524E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>6.4068591617929996E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6635,7 +6641,7 @@
         <v>4.2847188634349999E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>1.3706140350870001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7155,7 +7161,7 @@
         <v>1.4363535433480001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>2.1076998050679999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7675,7 +7681,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>0.114525375939849</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>0.16578640576554299</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7762,7 +7768,7 @@
         <v>0.175719236070385</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -7820,7 +7826,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -7849,7 +7855,7 @@
         <v>0.10328947368421</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -7878,7 +7884,7 @@
         <v>6.2434210526315703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7907,7 +7913,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -7936,7 +7942,7 @@
         <v>0.274053880387848</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -7965,7 +7971,7 @@
         <v>0.324775909301532</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7994,7 +8000,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>0.248073422655502</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -8052,7 +8058,7 @@
         <v>0.26561493234702799</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -8110,7 +8116,7 @@
         <v>0.19559457364318</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>0.20469629267005099</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -8197,7 +8203,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>0.103815789473684</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>6.6644736842105201E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -8313,7 +8319,7 @@
         <v>0.29188482445147901</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -8342,7 +8348,7 @@
         <v>0.36307771896847302</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>0.244547326615594</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -8429,7 +8435,7 @@
         <v>0.27071162393861398</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -8458,7 +8464,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>0.19421831740352299</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>0.20657291727735499</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -8574,7 +8580,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -8603,7 +8609,7 @@
         <v>3.6447368421052603E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>2.60526315789473E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8661,7 +8667,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -8690,7 +8696,7 @@
         <v>9.7143330565248806E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>0.14074735263966501</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -8777,7 +8783,7 @@
         <v>8.1361926240573895E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -8806,7 +8812,7 @@
         <v>9.7132169677947702E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -8835,7 +8841,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>6.13763537507045E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -8893,7 +8899,7 @@
         <v>6.8092234330894202E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -8922,7 +8928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>1.4605263157894699E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -9009,7 +9015,7 @@
         <v>1.8881578947368399E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -9038,7 +9044,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>3.5479919434212998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>8.7976462115139306E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>1.9739058548339801E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -9183,7 +9189,7 @@
         <v>4.0207449662581898E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -9212,7 +9218,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -9241,7 +9247,7 @@
         <v>9.1839847594695004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -9270,7 +9276,7 @@
         <v>1.6739757807377499E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -9299,7 +9305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -9391,7 +9397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>0.87433628318584078</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -9575,7 +9581,7 @@
         <v>0.86460176991150439</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>0.86637168141592924</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -9759,7 +9765,7 @@
         <v>0.86283185840707977</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>0.87079646017699108</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -9943,7 +9949,7 @@
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -10035,7 +10041,7 @@
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -10127,7 +10133,7 @@
         <v>0.86017699115044244</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -10156,7 +10162,7 @@
         <v>3.4626038781163397E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -10185,7 +10191,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -10306,7 +10312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -10398,7 +10404,7 @@
         <v>0.87433628318584078</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -10490,7 +10496,7 @@
         <v>0.86460176991150439</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -10582,7 +10588,7 @@
         <v>0.86637168141592924</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -10674,7 +10680,7 @@
         <v>0.86283185840707977</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -10766,7 +10772,7 @@
         <v>0.87079646017699108</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -10858,7 +10864,7 @@
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -10950,7 +10956,7 @@
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -11042,7 +11048,7 @@
         <v>0.86017699115044244</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -11071,7 +11077,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -11100,7 +11106,7 @@
         <v>0.73668125318101874</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -11129,7 +11135,7 @@
         <v>0.74110394028228066</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -11158,7 +11164,7 @@
         <v>0.74677607454431738</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -11187,7 +11193,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -11216,7 +11222,7 @@
         <v>0.70877581120943955</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -11245,7 +11251,7 @@
         <v>0.71067811490377863</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -11274,7 +11280,7 @@
         <v>0.71162156178649771</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>0.62300884955752212</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -11332,7 +11338,7 @@
         <v>0.81769911504424775</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -11361,7 +11367,7 @@
         <v>0.83097345132743372</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -11407,50 +11413,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEBD0B-6C2A-4EF8-8936-3C4C027D1B7C}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="23"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="21" t="s">
         <v>69</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
-      <c r="M1" s="23"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="21" t="s">
         <v>85</v>
       </c>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>86</v>
       </c>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
-      <c r="U1" s="23"/>
+      <c r="U1" s="22"/>
       <c r="V1" s="21" t="s">
         <v>74</v>
       </c>
@@ -11464,8 +11470,8 @@
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
         <v>87</v>
       </c>
@@ -11551,7 +11557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -11627,20 +11633,20 @@
       <c r="Y3" s="10">
         <v>4.3859649122807001E-5</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="18">
         <v>0.62920353982300892</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="13">
         <v>0.84070796460176989</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="18">
         <v>0.75223240980849693</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="13">
         <v>0.72185840707964599</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -11716,20 +11722,20 @@
       <c r="Y4" s="11">
         <v>1.49521531100478E-5</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="24">
         <v>0.62035398230088501</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="24">
         <v>0.82477876106194681</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="24">
         <v>0.73909805936333373</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="24">
         <v>0.70966076696165181</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
@@ -11805,20 +11811,20 @@
       <c r="Y5" s="15">
         <v>4.4956140350869999E-4</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="24">
         <v>0.61946902654867253</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="24">
         <v>0.82123893805309733</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="24">
         <v>0.73728826916094825</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="24">
         <v>0.70839233038348071</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
@@ -11894,20 +11900,20 @@
       <c r="Y6" s="11">
         <v>3.2894736842099999E-4</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="24">
         <v>0.62300884955752212</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="24">
         <v>0.82477876106194681</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="24">
         <v>0.7415343956944036</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="24">
         <v>0.71280235988200591</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -11983,20 +11989,20 @@
       <c r="Y7" s="11">
         <v>0</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="24">
         <v>0.61946902654867253</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="24">
         <v>0.82831858407079628</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="24">
         <v>0.74143207160270697</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="24">
         <v>0.71154867256637166</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -12072,20 +12078,20 @@
       <c r="Y8" s="16">
         <v>1.2260765550239001E-3</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="24">
         <v>0.62743362831858396</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="15">
         <v>0.83539823008849545</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="24">
         <v>0.74921276764635736</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="15">
         <v>0.71952802359881995</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -12161,20 +12167,20 @@
       <c r="Y9" s="11">
         <v>1.3157894736839999E-4</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="16">
         <v>0.63274336283185839</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="24">
         <v>0.8345132743362832</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="16">
         <v>0.75075982941528285</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="16">
         <v>0.72190265486725658</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -12250,16 +12256,16 @@
       <c r="Y10" s="12">
         <v>8.8079986149584404E-5</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="25">
         <v>0.62300884955752212</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="25">
         <v>0.81769911504424775</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="25">
         <v>0.73668125318101874</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="25">
         <v>0.70877581120943955</v>
       </c>
     </row>
@@ -12275,6 +12281,46 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E10">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -12284,7 +12330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
+  <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -12294,7 +12340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
+  <conditionalFormatting sqref="H3:H10">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -12304,7 +12350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E10">
+  <conditionalFormatting sqref="I3:I10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -12314,7 +12360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F10">
+  <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -12324,7 +12370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="K3:K10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -12334,7 +12380,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
+  <conditionalFormatting sqref="L3:L10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12344,7 +12390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I10">
+  <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -12354,7 +12400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10">
+  <conditionalFormatting sqref="N3:N10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -12364,7 +12410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K10">
+  <conditionalFormatting sqref="O3:O10">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -12374,7 +12420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10">
+  <conditionalFormatting sqref="P3:P10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12384,7 +12430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
+  <conditionalFormatting sqref="Q3:Q10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -12394,7 +12440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N10">
+  <conditionalFormatting sqref="R3:R10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12404,7 +12450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O10">
+  <conditionalFormatting sqref="S3:S10">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -12414,7 +12460,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P10">
+  <conditionalFormatting sqref="T3:T10">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12424,7 +12470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10">
+  <conditionalFormatting sqref="U3:U10">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -12434,7 +12480,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R10">
+  <conditionalFormatting sqref="V3:V10">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -12444,7 +12490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S10">
+  <conditionalFormatting sqref="W3:W10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -12454,7 +12500,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T10">
+  <conditionalFormatting sqref="X3:X10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -12464,7 +12510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U10">
+  <conditionalFormatting sqref="Y3:Y10">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -12474,7 +12520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V10">
+  <conditionalFormatting sqref="Z3:Z10">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12484,7 +12530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W10">
+  <conditionalFormatting sqref="AA3:AA10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12494,7 +12540,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X10">
+  <conditionalFormatting sqref="AB3:AB10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12504,7 +12550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y10">
+  <conditionalFormatting sqref="AC3:AC10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfani/Github/fani-lab/LADy/main/output/SemEval-14/Restaurants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DCBED-5053-FB47-B395-771BC02F3812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9C910-FA39-4DE0-BC5F-D30F31493DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -611,12 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,16 +928,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F85FE2-0E4A-4FDA-8B9D-4C7A407A54D4}">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:I153"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:I153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -972,7 +966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +995,7 @@
         <v>0.192105263157894</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1024,7 @@
         <v>8.5526315789473506E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1053,7 @@
         <v>5.5657894736841997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1082,7 @@
         <v>1.1467105263157799E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>0.114525375939849</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1140,7 @@
         <v>0.23855630653587701</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>0.29961021598054099</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1198,7 @@
         <v>0.55901930623623797</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1227,7 @@
         <v>0.192105263157894</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1256,7 @@
         <v>0.20759023286387199</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1291,7 +1285,7 @@
         <v>0.229529939956577</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1320,7 +1314,7 @@
         <v>0.29357079993723301</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>0.114525375939849</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +1372,7 @@
         <v>0.16578640576554299</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>0.175719236070385</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1430,7 @@
         <v>0.188284382665764</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +1459,7 @@
         <v>0.192105263157894</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1494,7 +1488,7 @@
         <v>0.37302631578947298</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1523,7 +1517,7 @@
         <v>0.46447368421052598</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>0.77565789473684199</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1604,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1633,7 @@
         <v>0.10328947368421</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>6.2434210526315703E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1691,7 @@
         <v>1.21973684210525E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1726,7 +1720,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1749,7 @@
         <v>0.274053880387848</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +1778,7 @@
         <v>0.324775909301532</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1813,7 +1807,7 @@
         <v>0.58298086426116102</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1842,7 +1836,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1871,7 +1865,7 @@
         <v>0.248073422655502</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1894,7 @@
         <v>0.26561493234702799</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +1923,7 @@
         <v>0.33126830755069298</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1987,7 +1981,7 @@
         <v>0.19559457364318</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2016,7 +2010,7 @@
         <v>0.20469629267005099</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2045,7 +2039,7 @@
         <v>0.21849429484770799</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -2074,7 +2068,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2097,7 @@
         <v>0.45394736842105199</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -2132,7 +2126,7 @@
         <v>0.51907894736842097</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>0.79539473684210504</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2219,7 +2213,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2242,7 @@
         <v>0.103815789473684</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2271,7 @@
         <v>6.6644736842105201E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -2306,7 +2300,7 @@
         <v>1.0809210526315701E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +2329,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>0.29188482445147901</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>0.36307771896847302</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2416,7 @@
         <v>0.54116844566636801</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2445,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2480,7 +2474,7 @@
         <v>0.244547326615594</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2509,7 +2503,7 @@
         <v>0.27071162393861398</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2538,7 +2532,7 @@
         <v>0.31859333977014698</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2567,7 +2561,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>0.19421831740352299</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2625,7 +2619,7 @@
         <v>0.20657291727735499</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2654,7 +2648,7 @@
         <v>0.21773795183281</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2683,7 +2677,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2712,7 +2706,7 @@
         <v>0.451315789473684</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2741,7 +2735,7 @@
         <v>0.54276315789473595</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -2770,7 +2764,7 @@
         <v>0.75197368421052602</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -2799,7 +2793,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -2857,7 +2851,7 @@
         <v>3.6447368421052603E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2886,7 +2880,7 @@
         <v>2.60526315789473E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2909,7 @@
         <v>7.8289473684209996E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +2938,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +2967,7 @@
         <v>9.7143330565248806E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +2996,7 @@
         <v>0.14074735263966501</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3031,7 +3025,7 @@
         <v>0.38638084320650101</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3060,7 +3054,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3089,7 +3083,7 @@
         <v>8.1361926240573895E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3112,7 @@
         <v>9.7132169677947702E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3141,7 @@
         <v>0.15386294485994301</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3170,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3199,7 @@
         <v>6.13763537507045E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -3234,7 +3228,7 @@
         <v>6.8092234330894202E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -3263,7 +3257,7 @@
         <v>7.6910784646028393E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -3292,7 +3286,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -3321,7 +3315,7 @@
         <v>0.16578947368420999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3350,7 +3344,7 @@
         <v>0.230263157894736</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -3379,7 +3373,7 @@
         <v>0.58552631578947301</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -3408,7 +3402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -3437,7 +3431,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3460,7 @@
         <v>1.4605263157894699E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3495,7 +3489,7 @@
         <v>1.8881578947368399E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -3524,7 +3518,7 @@
         <v>6.8026315789472998E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +3547,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3582,7 +3576,7 @@
         <v>3.5479919434212998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -3611,7 +3605,7 @@
         <v>8.7976462115139306E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3640,7 +3634,7 @@
         <v>0.30324846754123003</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3669,7 +3663,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -3698,7 +3692,7 @@
         <v>1.9739058548339801E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -3727,7 +3721,7 @@
         <v>4.0207449662581898E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3756,7 +3750,7 @@
         <v>9.3041857891330404E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3785,7 +3779,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -3814,7 +3808,7 @@
         <v>9.1839847594695004E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -3843,7 +3837,7 @@
         <v>1.6739757807377499E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -3872,7 +3866,7 @@
         <v>2.58446236854178E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -3901,7 +3895,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3930,7 +3924,7 @@
         <v>7.0394736842105204E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -3959,7 +3953,7 @@
         <v>0.17697368421052601</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -3988,7 +3982,7 @@
         <v>0.50657894736842102</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -4017,7 +4011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +4040,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4069,7 @@
         <v>3.9473684210519999E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -4104,7 +4098,7 @@
         <v>1.973684210526E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -4133,7 +4127,7 @@
         <v>2.6315789473684198E-5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -4162,7 +4156,7 @@
         <v>3.4626038781163397E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4191,7 +4185,7 @@
         <v>2.8133656509690002E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -4220,7 +4214,7 @@
         <v>2.8133656509690002E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4249,7 +4243,7 @@
         <v>4.4581024930740002E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4278,7 +4272,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -4307,7 +4301,7 @@
         <v>4.1858432456850001E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -4336,7 +4330,7 @@
         <v>3.1582097180499999E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -4365,7 +4359,7 @@
         <v>3.33331509043E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -4394,7 +4388,7 @@
         <v>3.4626038781163397E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -4423,7 +4417,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4452,7 +4446,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -4481,7 +4475,7 @@
         <v>9.9828106450336305E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -4510,7 +4504,7 @@
         <v>6.5789473684210004E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -4539,7 +4533,7 @@
         <v>1.9736842105262998E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -4568,7 +4562,7 @@
         <v>1.9736842105262998E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>21</v>
       </c>
@@ -4597,7 +4591,7 @@
         <v>2.6315789473684002E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -4626,111 +4620,111 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
       <c r="B134">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C134">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D134">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E134">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F134">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G134">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H134">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I134">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>3</v>
       </c>
       <c r="B135">
-        <v>0.16814159292035391</v>
+        <v>0.1095575221238935</v>
       </c>
       <c r="C135">
-        <v>0.16495575221238931</v>
+        <v>0.1653097345132743</v>
       </c>
       <c r="D135">
-        <v>0.16707964601769909</v>
+        <v>0.1672566371681416</v>
       </c>
       <c r="E135">
-        <v>0.1656637168141592</v>
+        <v>0.16548672566371669</v>
       </c>
       <c r="F135">
-        <v>0.16424778761061939</v>
+        <v>0.16318584070796449</v>
       </c>
       <c r="G135">
         <v>0.16495575221238931</v>
       </c>
       <c r="H135">
-        <v>0.16690265486725661</v>
+        <v>0.16707964601769909</v>
       </c>
       <c r="I135">
-        <v>0.16353982300884939</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.1647787610619468</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
       <c r="B136">
-        <v>8.5132743362831803E-2</v>
+        <v>6.4513274336282997E-2</v>
       </c>
       <c r="C136">
-        <v>8.3716814159291997E-2</v>
+        <v>8.3893805309734504E-2</v>
       </c>
       <c r="D136">
-        <v>8.4867256637168098E-2</v>
+        <v>8.44247787610619E-2</v>
       </c>
       <c r="E136">
-        <v>8.3893805309734504E-2</v>
+        <v>8.3628318584070799E-2</v>
       </c>
       <c r="F136">
-        <v>8.3628318584070799E-2</v>
+        <v>8.3539823008849504E-2</v>
       </c>
       <c r="G136">
-        <v>8.3716814159291997E-2</v>
+        <v>8.3805309734513195E-2</v>
       </c>
       <c r="H136">
-        <v>8.4513274336283098E-2</v>
+        <v>8.4690265486725605E-2</v>
       </c>
       <c r="I136">
-        <v>8.3097345132743305E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.3362831858406997E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
       <c r="B137">
-        <v>8.7433628318583992E-3</v>
+        <v>8.4424778761062001E-3</v>
       </c>
       <c r="C137">
+        <v>8.6814159292035002E-3</v>
+      </c>
+      <c r="D137">
         <v>8.6460176991149992E-3</v>
       </c>
-      <c r="D137">
-        <v>8.6637168141592003E-3</v>
-      </c>
       <c r="E137">
-        <v>8.6283185840707998E-3</v>
+        <v>8.6371681415928995E-3</v>
       </c>
       <c r="F137">
-        <v>8.7079646017698999E-3</v>
+        <v>8.6725663716814005E-3</v>
       </c>
       <c r="G137">
         <v>8.6548672566371006E-3</v>
@@ -4739,114 +4733,114 @@
         <v>8.6548672566371006E-3</v>
       </c>
       <c r="I137">
-        <v>8.6017699115044002E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.6460176991149992E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
       <c r="B138">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C138">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D138">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E138">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F138">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G138">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H138">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I138">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
       <c r="B139">
-        <v>0.84070796460176989</v>
+        <v>0.54778761061946901</v>
       </c>
       <c r="C139">
-        <v>0.82477876106194681</v>
+        <v>0.82654867256637166</v>
       </c>
       <c r="D139">
-        <v>0.83539823008849545</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="E139">
-        <v>0.82831858407079628</v>
+        <v>0.82743362831858391</v>
       </c>
       <c r="F139">
-        <v>0.82123893805309733</v>
+        <v>0.81592920353982312</v>
       </c>
       <c r="G139">
         <v>0.82477876106194681</v>
       </c>
       <c r="H139">
-        <v>0.8345132743362832</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="I139">
-        <v>0.81769911504424775</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82389380530973444</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
       <c r="B140">
-        <v>0.85132743362831853</v>
+        <v>0.64513274336283177</v>
       </c>
       <c r="C140">
-        <v>0.8371681415929203</v>
+        <v>0.83893805309734515</v>
       </c>
       <c r="D140">
-        <v>0.84867256637168142</v>
+        <v>0.84424778761061958</v>
       </c>
       <c r="E140">
-        <v>0.83893805309734515</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="F140">
-        <v>0.83628318584070804</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="G140">
-        <v>0.8371681415929203</v>
+        <v>0.83805309734513267</v>
       </c>
       <c r="H140">
-        <v>0.84513274336283184</v>
+        <v>0.84690265486725669</v>
       </c>
       <c r="I140">
-        <v>0.83097345132743372</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83362831858407083</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
       <c r="B141">
-        <v>0.87433628318584078</v>
+        <v>0.84424778761061936</v>
       </c>
       <c r="C141">
+        <v>0.86814159292035398</v>
+      </c>
+      <c r="D141">
         <v>0.86460176991150439</v>
       </c>
-      <c r="D141">
-        <v>0.86637168141592924</v>
-      </c>
       <c r="E141">
-        <v>0.86283185840707977</v>
+        <v>0.86371681415929191</v>
       </c>
       <c r="F141">
-        <v>0.87079646017699108</v>
+        <v>0.86725663716814161</v>
       </c>
       <c r="G141">
         <v>0.86548672566371676</v>
@@ -4855,346 +4849,346 @@
         <v>0.86548672566371676</v>
       </c>
       <c r="I141">
-        <v>0.86017699115044244</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8646017699115045</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
       <c r="B142">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C142">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D142">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E142">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F142">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G142">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H142">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I142">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>11</v>
       </c>
       <c r="B143">
-        <v>0.75223240980849693</v>
+        <v>0.45191435477082248</v>
       </c>
       <c r="C143">
-        <v>0.7415343956944036</v>
+        <v>0.74167904013767016</v>
       </c>
       <c r="D143">
-        <v>0.74921276764635736</v>
+        <v>0.74872040639660964</v>
       </c>
       <c r="E143">
-        <v>0.74143207160270697</v>
+        <v>0.73992854309119571</v>
       </c>
       <c r="F143">
-        <v>0.73728826916094825</v>
+        <v>0.73212857139942233</v>
       </c>
       <c r="G143">
-        <v>0.73909805936333373</v>
+        <v>0.73948967234156338</v>
       </c>
       <c r="H143">
-        <v>0.75075982941528285</v>
+        <v>0.7500509685462633</v>
       </c>
       <c r="I143">
-        <v>0.73668125318101874</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74347147090489041</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>12</v>
       </c>
       <c r="B144">
-        <v>0.75565007805945172</v>
+        <v>0.4834295304997836</v>
       </c>
       <c r="C144">
-        <v>0.7458116242261299</v>
+        <v>0.74570371874480279</v>
       </c>
       <c r="D144">
-        <v>0.75361302681350373</v>
+        <v>0.75129300719245173</v>
       </c>
       <c r="E144">
-        <v>0.74491872960937111</v>
+        <v>0.7429352075230452</v>
       </c>
       <c r="F144">
-        <v>0.74232327273207699</v>
+        <v>0.73842433237667227</v>
       </c>
       <c r="G144">
-        <v>0.74321829309646603</v>
+        <v>0.74378386970299437</v>
       </c>
       <c r="H144">
-        <v>0.75441276183895867</v>
+        <v>0.75385285415213787</v>
       </c>
       <c r="I144">
-        <v>0.74110394028228066</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74684219230890991</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
       <c r="B145">
-        <v>0.76030110285253905</v>
+        <v>0.52517248409274941</v>
       </c>
       <c r="C145">
-        <v>0.75128517689708219</v>
+        <v>0.75113363554325607</v>
       </c>
       <c r="D145">
-        <v>0.75724205476213735</v>
+        <v>0.75569324226199253</v>
       </c>
       <c r="E145">
-        <v>0.74978408834054755</v>
+        <v>0.74839396494972288</v>
       </c>
       <c r="F145">
-        <v>0.74946048218436134</v>
+        <v>0.74470896382332741</v>
       </c>
       <c r="G145">
-        <v>0.74882371759365562</v>
+        <v>0.7492237815007089</v>
       </c>
       <c r="H145">
-        <v>0.75850986732845715</v>
+        <v>0.75731407461203493</v>
       </c>
       <c r="I145">
-        <v>0.74677607454431738</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.75271844974994939</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>14</v>
       </c>
       <c r="B146">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C146">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D146">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E146">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F146">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G146">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H146">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I146">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
       <c r="B147">
-        <v>0.72185840707964599</v>
+        <v>0.42007374631268429</v>
       </c>
       <c r="C147">
-        <v>0.71280235988200591</v>
+        <v>0.71246312684365765</v>
       </c>
       <c r="D147">
-        <v>0.71952802359881995</v>
+        <v>0.71861356932153397</v>
       </c>
       <c r="E147">
-        <v>0.71154867256637166</v>
+        <v>0.70977876106194693</v>
       </c>
       <c r="F147">
-        <v>0.70839233038348071</v>
+        <v>0.70324483775811208</v>
       </c>
       <c r="G147">
-        <v>0.70966076696165181</v>
+        <v>0.71023598820058997</v>
       </c>
       <c r="H147">
-        <v>0.72190265486725658</v>
+        <v>0.72072271386430675</v>
       </c>
       <c r="I147">
-        <v>0.70877581120943955</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71584070796460164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
       <c r="B148">
-        <v>0.72325677763730856</v>
+        <v>0.43310226155358889</v>
       </c>
       <c r="C148">
-        <v>0.71472924568057306</v>
+        <v>0.71413681696867537</v>
       </c>
       <c r="D148">
-        <v>0.72140679870768365</v>
+        <v>0.71967376035960107</v>
       </c>
       <c r="E148">
-        <v>0.71301973591796597</v>
+        <v>0.71110443882567775</v>
       </c>
       <c r="F148">
-        <v>0.7105734653743504</v>
+        <v>0.70584211265627195</v>
       </c>
       <c r="G148">
-        <v>0.71142786908273625</v>
+        <v>0.71200906026127275</v>
       </c>
       <c r="H148">
-        <v>0.7235391206630144</v>
+        <v>0.72234126984126967</v>
       </c>
       <c r="I148">
-        <v>0.71067811490377863</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71736304256215755</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
       <c r="B149">
-        <v>0.72413532427085325</v>
+        <v>0.44137392430668798</v>
       </c>
       <c r="C149">
-        <v>0.71570067085624189</v>
+        <v>0.71493795019210093</v>
       </c>
       <c r="D149">
-        <v>0.72209482924078139</v>
+        <v>0.72059889693637558</v>
       </c>
       <c r="E149">
-        <v>0.71394505844708278</v>
+        <v>0.7120941084865916</v>
       </c>
       <c r="F149">
-        <v>0.71195529433083737</v>
+        <v>0.70689506514116796</v>
       </c>
       <c r="G149">
-        <v>0.71240030930980858</v>
+        <v>0.71298017721829265</v>
       </c>
       <c r="H149">
-        <v>0.72425221734611522</v>
+        <v>0.72285130294618338</v>
       </c>
       <c r="I149">
-        <v>0.71162156178649771</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71827337168777072</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>18</v>
       </c>
       <c r="B150">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C150">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D150">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E150">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F150">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G150">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H150">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I150">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
       <c r="B151">
-        <v>0.84070796460176989</v>
+        <v>0.54778761061946901</v>
       </c>
       <c r="C151">
-        <v>0.82477876106194681</v>
+        <v>0.82654867256637166</v>
       </c>
       <c r="D151">
-        <v>0.83539823008849545</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="E151">
-        <v>0.82831858407079628</v>
+        <v>0.82743362831858391</v>
       </c>
       <c r="F151">
-        <v>0.82123893805309733</v>
+        <v>0.81592920353982312</v>
       </c>
       <c r="G151">
         <v>0.82477876106194681</v>
       </c>
       <c r="H151">
-        <v>0.8345132743362832</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="I151">
-        <v>0.81769911504424775</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82389380530973444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
       <c r="B152">
-        <v>0.85132743362831853</v>
+        <v>0.64513274336283177</v>
       </c>
       <c r="C152">
-        <v>0.8371681415929203</v>
+        <v>0.83893805309734515</v>
       </c>
       <c r="D152">
-        <v>0.84867256637168142</v>
+        <v>0.84424778761061958</v>
       </c>
       <c r="E152">
-        <v>0.83893805309734515</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="F152">
-        <v>0.83628318584070804</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="G152">
-        <v>0.8371681415929203</v>
+        <v>0.83805309734513267</v>
       </c>
       <c r="H152">
-        <v>0.84513274336283184</v>
+        <v>0.84690265486725669</v>
       </c>
       <c r="I152">
-        <v>0.83097345132743372</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83362831858407083</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
       <c r="B153">
-        <v>0.87433628318584078</v>
+        <v>0.84424778761061936</v>
       </c>
       <c r="C153">
+        <v>0.86814159292035398</v>
+      </c>
+      <c r="D153">
         <v>0.86460176991150439</v>
       </c>
-      <c r="D153">
-        <v>0.86637168141592924</v>
-      </c>
       <c r="E153">
-        <v>0.86283185840707977</v>
+        <v>0.86371681415929191</v>
       </c>
       <c r="F153">
-        <v>0.87079646017699108</v>
+        <v>0.86725663716814161</v>
       </c>
       <c r="G153">
         <v>0.86548672566371676</v>
@@ -5203,7 +5197,7 @@
         <v>0.86548672566371676</v>
       </c>
       <c r="I153">
-        <v>0.86017699115044244</v>
+        <v>0.8646017699115045</v>
       </c>
     </row>
   </sheetData>
@@ -5216,15 +5210,15 @@
   <dimension ref="A1:CJ107"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+      <selection activeCell="B88" sqref="B88:I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5341,7 +5335,7 @@
       <c r="CI1" s="19"/>
       <c r="CJ1" s="19"/>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5601,7 +5595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5861,7 +5855,7 @@
         <v>1.0599415204669999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6121,7 +6115,7 @@
         <v>2.861379300524E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6381,7 +6375,7 @@
         <v>6.4068591617929996E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6641,7 +6635,7 @@
         <v>4.2847188634349999E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6901,7 +6895,7 @@
         <v>1.3706140350870001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7161,7 +7155,7 @@
         <v>1.4363535433480001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7421,7 +7415,7 @@
         <v>2.1076998050679999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7681,7 +7675,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7710,7 +7704,7 @@
         <v>0.114525375939849</v>
       </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7739,7 +7733,7 @@
         <v>0.16578640576554299</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -7768,7 +7762,7 @@
         <v>0.175719236070385</v>
       </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -7797,7 +7791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -7826,7 +7820,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -7855,7 +7849,7 @@
         <v>0.10328947368421</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -7884,7 +7878,7 @@
         <v>6.2434210526315703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7913,7 +7907,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -7942,7 +7936,7 @@
         <v>0.274053880387848</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -7971,7 +7965,7 @@
         <v>0.324775909301532</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -8000,7 +7994,7 @@
         <v>0.24868421052631501</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -8029,7 +8023,7 @@
         <v>0.248073422655502</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -8058,7 +8052,7 @@
         <v>0.26561493234702799</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -8087,7 +8081,7 @@
         <v>0.13715256897995801</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -8116,7 +8110,7 @@
         <v>0.19559457364318</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -8145,7 +8139,7 @@
         <v>0.20469629267005099</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -8174,7 +8168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -8203,7 +8197,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -8232,7 +8226,7 @@
         <v>0.103815789473684</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -8261,7 +8255,7 @@
         <v>6.6644736842105201E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -8290,7 +8284,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -8319,7 +8313,7 @@
         <v>0.29188482445147901</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -8348,7 +8342,7 @@
         <v>0.36307771896847302</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -8377,7 +8371,7 @@
         <v>0.19934210526315699</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -8406,7 +8400,7 @@
         <v>0.244547326615594</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -8435,7 +8429,7 @@
         <v>0.27071162393861398</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -8464,7 +8458,7 @@
         <v>0.123328895154553</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -8493,7 +8487,7 @@
         <v>0.19421831740352299</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -8522,7 +8516,7 @@
         <v>0.20657291727735499</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -8551,7 +8545,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -8580,7 +8574,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -8609,7 +8603,7 @@
         <v>3.6447368421052603E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -8638,7 +8632,7 @@
         <v>2.60526315789473E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8667,7 +8661,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -8696,7 +8690,7 @@
         <v>9.7143330565248806E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -8725,7 +8719,7 @@
         <v>0.14074735263966501</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -8754,7 +8748,7 @@
         <v>7.1710526315789405E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -8783,7 +8777,7 @@
         <v>8.1361926240573895E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -8812,7 +8806,7 @@
         <v>9.7132169677947702E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -8841,7 +8835,7 @@
         <v>3.9450971177944799E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -8870,7 +8864,7 @@
         <v>6.13763537507045E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -8899,7 +8893,7 @@
         <v>6.8092234330894202E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -8928,7 +8922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -8957,7 +8951,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -8986,7 +8980,7 @@
         <v>1.4605263157894699E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -9015,7 +9009,7 @@
         <v>1.8881578947368399E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -9044,7 +9038,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -9073,7 +9067,7 @@
         <v>3.5479919434212998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9096,7 @@
         <v>8.7976462115139306E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -9131,7 +9125,7 @@
         <v>1.3157894736842001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -9160,7 +9154,7 @@
         <v>1.9739058548339801E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -9189,7 +9183,7 @@
         <v>4.0207449662581898E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -9218,7 +9212,7 @@
         <v>1.012145748987E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -9247,7 +9241,7 @@
         <v>9.1839847594695004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -9276,7 +9270,7 @@
         <v>1.6739757807377499E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -9305,7 +9299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -9397,7 +9391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -9489,7 +9483,7 @@
         <v>0.87433628318584078</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -9581,7 +9575,7 @@
         <v>0.86460176991150439</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -9673,7 +9667,7 @@
         <v>0.86637168141592924</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -9765,7 +9759,7 @@
         <v>0.86283185840707977</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -9857,7 +9851,7 @@
         <v>0.87079646017699108</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -9949,7 +9943,7 @@
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -10041,7 +10035,7 @@
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -10133,7 +10127,7 @@
         <v>0.86017699115044244</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -10162,7 +10156,7 @@
         <v>3.4626038781163397E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -10191,7 +10185,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -10220,7 +10214,7 @@
         <v>8.8079986149584404E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -10312,300 +10306,300 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C88">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D88">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E88">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F88">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G88">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H88">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I88">
-        <v>0.62300884955752212</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="L88" t="s">
         <v>99</v>
       </c>
       <c r="M88">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="N88">
-        <v>0.16814159292035391</v>
+        <v>0.1095575221238935</v>
       </c>
       <c r="O88">
-        <v>8.5132743362831803E-2</v>
+        <v>6.4513274336282997E-2</v>
       </c>
       <c r="P88">
-        <v>8.7433628318583992E-3</v>
+        <v>8.4424778761062001E-3</v>
       </c>
       <c r="Q88">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="R88">
-        <v>0.84070796460176989</v>
+        <v>0.54778761061946901</v>
       </c>
       <c r="S88">
-        <v>0.85132743362831853</v>
+        <v>0.64513274336283177</v>
       </c>
       <c r="T88">
-        <v>0.87433628318584078</v>
+        <v>0.84424778761061936</v>
       </c>
       <c r="U88">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="V88">
-        <v>0.75223240980849693</v>
+        <v>0.45191435477082248</v>
       </c>
       <c r="W88">
-        <v>0.75565007805945172</v>
+        <v>0.4834295304997836</v>
       </c>
       <c r="X88">
-        <v>0.76030110285253905</v>
+        <v>0.52517248409274941</v>
       </c>
       <c r="Y88">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="Z88">
-        <v>0.72185840707964599</v>
+        <v>0.42007374631268429</v>
       </c>
       <c r="AA88">
-        <v>0.72325677763730856</v>
+        <v>0.43310226155358889</v>
       </c>
       <c r="AB88">
-        <v>0.72413532427085325</v>
+        <v>0.44137392430668798</v>
       </c>
       <c r="AC88">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="AD88">
-        <v>0.84070796460176989</v>
+        <v>0.54778761061946901</v>
       </c>
       <c r="AE88">
-        <v>0.85132743362831853</v>
+        <v>0.64513274336283177</v>
       </c>
       <c r="AF88">
-        <v>0.87433628318584078</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+        <v>0.84424778761061936</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
       <c r="B89">
-        <v>0.16814159292035391</v>
+        <v>0.1095575221238935</v>
       </c>
       <c r="C89">
-        <v>0.16495575221238931</v>
+        <v>0.1653097345132743</v>
       </c>
       <c r="D89">
-        <v>0.16707964601769909</v>
+        <v>0.1672566371681416</v>
       </c>
       <c r="E89">
-        <v>0.1656637168141592</v>
+        <v>0.16548672566371669</v>
       </c>
       <c r="F89">
-        <v>0.16424778761061939</v>
+        <v>0.16318584070796449</v>
       </c>
       <c r="G89">
         <v>0.16495575221238931</v>
       </c>
       <c r="H89">
-        <v>0.16690265486725661</v>
+        <v>0.16707964601769909</v>
       </c>
       <c r="I89">
-        <v>0.16353982300884939</v>
+        <v>0.1647787610619468</v>
       </c>
       <c r="L89" t="s">
         <v>100</v>
       </c>
       <c r="M89">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="N89">
-        <v>0.16495575221238931</v>
+        <v>0.1653097345132743</v>
       </c>
       <c r="O89">
-        <v>8.3716814159291997E-2</v>
+        <v>8.3893805309734504E-2</v>
       </c>
       <c r="P89">
-        <v>8.6460176991149992E-3</v>
+        <v>8.6814159292035002E-3</v>
       </c>
       <c r="Q89">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="R89">
-        <v>0.82477876106194681</v>
+        <v>0.82654867256637166</v>
       </c>
       <c r="S89">
-        <v>0.8371681415929203</v>
+        <v>0.83893805309734515</v>
       </c>
       <c r="T89">
-        <v>0.86460176991150439</v>
+        <v>0.86814159292035398</v>
       </c>
       <c r="U89">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="V89">
-        <v>0.7415343956944036</v>
+        <v>0.74167904013767016</v>
       </c>
       <c r="W89">
-        <v>0.7458116242261299</v>
+        <v>0.74570371874480279</v>
       </c>
       <c r="X89">
-        <v>0.75128517689708219</v>
+        <v>0.75113363554325607</v>
       </c>
       <c r="Y89">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="Z89">
-        <v>0.71280235988200591</v>
+        <v>0.71246312684365765</v>
       </c>
       <c r="AA89">
-        <v>0.71472924568057306</v>
+        <v>0.71413681696867537</v>
       </c>
       <c r="AB89">
-        <v>0.71570067085624189</v>
+        <v>0.71493795019210093</v>
       </c>
       <c r="AC89">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="AD89">
-        <v>0.82477876106194681</v>
+        <v>0.82654867256637166</v>
       </c>
       <c r="AE89">
-        <v>0.8371681415929203</v>
+        <v>0.83893805309734515</v>
       </c>
       <c r="AF89">
-        <v>0.86460176991150439</v>
-      </c>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+        <v>0.86814159292035398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90">
-        <v>8.5132743362831803E-2</v>
+        <v>6.4513274336282997E-2</v>
       </c>
       <c r="C90">
-        <v>8.3716814159291997E-2</v>
+        <v>8.3893805309734504E-2</v>
       </c>
       <c r="D90">
-        <v>8.4867256637168098E-2</v>
+        <v>8.44247787610619E-2</v>
       </c>
       <c r="E90">
-        <v>8.3893805309734504E-2</v>
+        <v>8.3628318584070799E-2</v>
       </c>
       <c r="F90">
-        <v>8.3628318584070799E-2</v>
+        <v>8.3539823008849504E-2</v>
       </c>
       <c r="G90">
-        <v>8.3716814159291997E-2</v>
+        <v>8.3805309734513195E-2</v>
       </c>
       <c r="H90">
-        <v>8.4513274336283098E-2</v>
+        <v>8.4690265486725605E-2</v>
       </c>
       <c r="I90">
-        <v>8.3097345132743305E-2</v>
+        <v>8.3362831858406997E-2</v>
       </c>
       <c r="L90" t="s">
         <v>101</v>
       </c>
       <c r="M90">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="N90">
-        <v>0.16707964601769909</v>
+        <v>0.1672566371681416</v>
       </c>
       <c r="O90">
-        <v>8.4867256637168098E-2</v>
+        <v>8.44247787610619E-2</v>
       </c>
       <c r="P90">
-        <v>8.6637168141592003E-3</v>
+        <v>8.6460176991149992E-3</v>
       </c>
       <c r="Q90">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="R90">
-        <v>0.83539823008849545</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="S90">
-        <v>0.84867256637168142</v>
+        <v>0.84424778761061958</v>
       </c>
       <c r="T90">
-        <v>0.86637168141592924</v>
+        <v>0.86460176991150439</v>
       </c>
       <c r="U90">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="V90">
-        <v>0.74921276764635736</v>
+        <v>0.74872040639660964</v>
       </c>
       <c r="W90">
-        <v>0.75361302681350373</v>
+        <v>0.75129300719245173</v>
       </c>
       <c r="X90">
-        <v>0.75724205476213735</v>
+        <v>0.75569324226199253</v>
       </c>
       <c r="Y90">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="Z90">
-        <v>0.71952802359881995</v>
+        <v>0.71861356932153397</v>
       </c>
       <c r="AA90">
-        <v>0.72140679870768365</v>
+        <v>0.71967376035960107</v>
       </c>
       <c r="AB90">
-        <v>0.72209482924078139</v>
+        <v>0.72059889693637558</v>
       </c>
       <c r="AC90">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="AD90">
-        <v>0.83539823008849545</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="AE90">
-        <v>0.84867256637168142</v>
+        <v>0.84424778761061958</v>
       </c>
       <c r="AF90">
-        <v>0.86637168141592924</v>
-      </c>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+        <v>0.86460176991150439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91">
-        <v>8.7433628318583992E-3</v>
+        <v>8.4424778761062001E-3</v>
       </c>
       <c r="C91">
+        <v>8.6814159292035002E-3</v>
+      </c>
+      <c r="D91">
         <v>8.6460176991149992E-3</v>
       </c>
-      <c r="D91">
-        <v>8.6637168141592003E-3</v>
-      </c>
       <c r="E91">
-        <v>8.6283185840707998E-3</v>
+        <v>8.6371681415928995E-3</v>
       </c>
       <c r="F91">
-        <v>8.7079646017698999E-3</v>
+        <v>8.6725663716814005E-3</v>
       </c>
       <c r="G91">
         <v>8.6548672566371006E-3</v>
@@ -10614,366 +10608,366 @@
         <v>8.6548672566371006E-3</v>
       </c>
       <c r="I91">
-        <v>8.6017699115044002E-3</v>
+        <v>8.6460176991149992E-3</v>
       </c>
       <c r="L91" t="s">
         <v>102</v>
       </c>
       <c r="M91">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="N91">
-        <v>0.1656637168141592</v>
+        <v>0.16548672566371669</v>
       </c>
       <c r="O91">
-        <v>8.3893805309734504E-2</v>
+        <v>8.3628318584070799E-2</v>
       </c>
       <c r="P91">
-        <v>8.6283185840707998E-3</v>
+        <v>8.6371681415928995E-3</v>
       </c>
       <c r="Q91">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="R91">
-        <v>0.82831858407079628</v>
+        <v>0.82743362831858391</v>
       </c>
       <c r="S91">
-        <v>0.83893805309734515</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="T91">
-        <v>0.86283185840707977</v>
+        <v>0.86371681415929191</v>
       </c>
       <c r="U91">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="V91">
-        <v>0.74143207160270697</v>
+        <v>0.73992854309119571</v>
       </c>
       <c r="W91">
-        <v>0.74491872960937111</v>
+        <v>0.7429352075230452</v>
       </c>
       <c r="X91">
-        <v>0.74978408834054755</v>
+        <v>0.74839396494972288</v>
       </c>
       <c r="Y91">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="Z91">
-        <v>0.71154867256637166</v>
+        <v>0.70977876106194693</v>
       </c>
       <c r="AA91">
-        <v>0.71301973591796597</v>
+        <v>0.71110443882567775</v>
       </c>
       <c r="AB91">
-        <v>0.71394505844708278</v>
+        <v>0.7120941084865916</v>
       </c>
       <c r="AC91">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="AD91">
-        <v>0.82831858407079628</v>
+        <v>0.82743362831858391</v>
       </c>
       <c r="AE91">
-        <v>0.83893805309734515</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="AF91">
-        <v>0.86283185840707977</v>
-      </c>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+        <v>0.86371681415929191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C92">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D92">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E92">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F92">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G92">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H92">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I92">
-        <v>0.62300884955752212</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="L92" t="s">
         <v>103</v>
       </c>
       <c r="M92">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="N92">
-        <v>0.16424778761061939</v>
+        <v>0.16318584070796449</v>
       </c>
       <c r="O92">
-        <v>8.3628318584070799E-2</v>
+        <v>8.3539823008849504E-2</v>
       </c>
       <c r="P92">
-        <v>8.7079646017698999E-3</v>
+        <v>8.6725663716814005E-3</v>
       </c>
       <c r="Q92">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="R92">
-        <v>0.82123893805309733</v>
+        <v>0.81592920353982312</v>
       </c>
       <c r="S92">
-        <v>0.83628318584070804</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="T92">
-        <v>0.87079646017699108</v>
+        <v>0.86725663716814161</v>
       </c>
       <c r="U92">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="V92">
-        <v>0.73728826916094825</v>
+        <v>0.73212857139942233</v>
       </c>
       <c r="W92">
-        <v>0.74232327273207699</v>
+        <v>0.73842433237667227</v>
       </c>
       <c r="X92">
-        <v>0.74946048218436134</v>
+        <v>0.74470896382332741</v>
       </c>
       <c r="Y92">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="Z92">
-        <v>0.70839233038348071</v>
+        <v>0.70324483775811208</v>
       </c>
       <c r="AA92">
-        <v>0.7105734653743504</v>
+        <v>0.70584211265627195</v>
       </c>
       <c r="AB92">
-        <v>0.71195529433083737</v>
+        <v>0.70689506514116796</v>
       </c>
       <c r="AC92">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="AD92">
-        <v>0.82123893805309733</v>
+        <v>0.81592920353982312</v>
       </c>
       <c r="AE92">
-        <v>0.83628318584070804</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="AF92">
-        <v>0.87079646017699108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+        <v>0.86725663716814161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93">
-        <v>0.84070796460176989</v>
+        <v>0.54778761061946901</v>
       </c>
       <c r="C93">
-        <v>0.82477876106194681</v>
+        <v>0.82654867256637166</v>
       </c>
       <c r="D93">
-        <v>0.83539823008849545</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="E93">
-        <v>0.82831858407079628</v>
+        <v>0.82743362831858391</v>
       </c>
       <c r="F93">
-        <v>0.82123893805309733</v>
+        <v>0.81592920353982312</v>
       </c>
       <c r="G93">
         <v>0.82477876106194681</v>
       </c>
       <c r="H93">
-        <v>0.8345132743362832</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="I93">
-        <v>0.81769911504424775</v>
+        <v>0.82389380530973444</v>
       </c>
       <c r="L93" t="s">
         <v>104</v>
       </c>
       <c r="M93">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="N93">
         <v>0.16495575221238931</v>
       </c>
       <c r="O93">
-        <v>8.3716814159291997E-2</v>
+        <v>8.3805309734513195E-2</v>
       </c>
       <c r="P93">
         <v>8.6548672566371006E-3</v>
       </c>
       <c r="Q93">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="R93">
         <v>0.82477876106194681</v>
       </c>
       <c r="S93">
-        <v>0.8371681415929203</v>
+        <v>0.83805309734513267</v>
       </c>
       <c r="T93">
         <v>0.86548672566371676</v>
       </c>
       <c r="U93">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="V93">
-        <v>0.73909805936333373</v>
+        <v>0.73948967234156338</v>
       </c>
       <c r="W93">
-        <v>0.74321829309646603</v>
+        <v>0.74378386970299437</v>
       </c>
       <c r="X93">
-        <v>0.74882371759365562</v>
+        <v>0.7492237815007089</v>
       </c>
       <c r="Y93">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="Z93">
-        <v>0.70966076696165181</v>
+        <v>0.71023598820058997</v>
       </c>
       <c r="AA93">
-        <v>0.71142786908273625</v>
+        <v>0.71200906026127275</v>
       </c>
       <c r="AB93">
-        <v>0.71240030930980858</v>
+        <v>0.71298017721829265</v>
       </c>
       <c r="AC93">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="AD93">
         <v>0.82477876106194681</v>
       </c>
       <c r="AE93">
-        <v>0.8371681415929203</v>
+        <v>0.83805309734513267</v>
       </c>
       <c r="AF93">
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94">
-        <v>0.85132743362831853</v>
+        <v>0.64513274336283177</v>
       </c>
       <c r="C94">
-        <v>0.8371681415929203</v>
+        <v>0.83893805309734515</v>
       </c>
       <c r="D94">
-        <v>0.84867256637168142</v>
+        <v>0.84424778761061958</v>
       </c>
       <c r="E94">
-        <v>0.83893805309734515</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="F94">
-        <v>0.83628318584070804</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="G94">
-        <v>0.8371681415929203</v>
+        <v>0.83805309734513267</v>
       </c>
       <c r="H94">
-        <v>0.84513274336283184</v>
+        <v>0.84690265486725669</v>
       </c>
       <c r="I94">
-        <v>0.83097345132743372</v>
+        <v>0.83362831858407083</v>
       </c>
       <c r="L94" t="s">
         <v>105</v>
       </c>
       <c r="M94">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="N94">
-        <v>0.16690265486725661</v>
+        <v>0.16707964601769909</v>
       </c>
       <c r="O94">
-        <v>8.4513274336283098E-2</v>
+        <v>8.4690265486725605E-2</v>
       </c>
       <c r="P94">
         <v>8.6548672566371006E-3</v>
       </c>
       <c r="Q94">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="R94">
-        <v>0.8345132743362832</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="S94">
-        <v>0.84513274336283184</v>
+        <v>0.84690265486725669</v>
       </c>
       <c r="T94">
         <v>0.86548672566371676</v>
       </c>
       <c r="U94">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="V94">
-        <v>0.75075982941528285</v>
+        <v>0.7500509685462633</v>
       </c>
       <c r="W94">
-        <v>0.75441276183895867</v>
+        <v>0.75385285415213787</v>
       </c>
       <c r="X94">
-        <v>0.75850986732845715</v>
+        <v>0.75731407461203493</v>
       </c>
       <c r="Y94">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="Z94">
-        <v>0.72190265486725658</v>
+        <v>0.72072271386430675</v>
       </c>
       <c r="AA94">
-        <v>0.7235391206630144</v>
+        <v>0.72234126984126967</v>
       </c>
       <c r="AB94">
-        <v>0.72425221734611522</v>
+        <v>0.72285130294618338</v>
       </c>
       <c r="AC94">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="AD94">
-        <v>0.8345132743362832</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="AE94">
-        <v>0.84513274336283184</v>
+        <v>0.84690265486725669</v>
       </c>
       <c r="AF94">
         <v>0.86548672566371676</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95">
-        <v>0.87433628318584078</v>
+        <v>0.84424778761061936</v>
       </c>
       <c r="C95">
+        <v>0.86814159292035398</v>
+      </c>
+      <c r="D95">
         <v>0.86460176991150439</v>
       </c>
-      <c r="D95">
-        <v>0.86637168141592924</v>
-      </c>
       <c r="E95">
-        <v>0.86283185840707977</v>
+        <v>0.86371681415929191</v>
       </c>
       <c r="F95">
-        <v>0.87079646017699108</v>
+        <v>0.86725663716814161</v>
       </c>
       <c r="G95">
         <v>0.86548672566371676</v>
@@ -10982,409 +10976,409 @@
         <v>0.86548672566371676</v>
       </c>
       <c r="I95">
-        <v>0.86017699115044244</v>
+        <v>0.8646017699115045</v>
       </c>
       <c r="L95" t="s">
         <v>106</v>
       </c>
       <c r="M95">
-        <v>0.62300884955752212</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="N95">
-        <v>0.16353982300884939</v>
+        <v>0.1647787610619468</v>
       </c>
       <c r="O95">
-        <v>8.3097345132743305E-2</v>
+        <v>8.3362831858406997E-2</v>
       </c>
       <c r="P95">
-        <v>8.6017699115044002E-3</v>
+        <v>8.6460176991149992E-3</v>
       </c>
       <c r="Q95">
-        <v>0.62300884955752212</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="R95">
-        <v>0.81769911504424775</v>
+        <v>0.82389380530973444</v>
       </c>
       <c r="S95">
-        <v>0.83097345132743372</v>
+        <v>0.83362831858407083</v>
       </c>
       <c r="T95">
-        <v>0.86017699115044244</v>
+        <v>0.8646017699115045</v>
       </c>
       <c r="U95">
-        <v>0.62300884955752212</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="V95">
-        <v>0.73668125318101874</v>
+        <v>0.74347147090489041</v>
       </c>
       <c r="W95">
-        <v>0.74110394028228066</v>
+        <v>0.74684219230890991</v>
       </c>
       <c r="X95">
-        <v>0.74677607454431738</v>
+        <v>0.75271844974994939</v>
       </c>
       <c r="Y95">
-        <v>0.62300884955752212</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="Z95">
-        <v>0.70877581120943955</v>
+        <v>0.71584070796460164</v>
       </c>
       <c r="AA95">
-        <v>0.71067811490377863</v>
+        <v>0.71736304256215755</v>
       </c>
       <c r="AB95">
-        <v>0.71162156178649771</v>
+        <v>0.71827337168777072</v>
       </c>
       <c r="AC95">
-        <v>0.62300884955752212</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="AD95">
-        <v>0.81769911504424775</v>
+        <v>0.82389380530973444</v>
       </c>
       <c r="AE95">
-        <v>0.83097345132743372</v>
+        <v>0.83362831858407083</v>
       </c>
       <c r="AF95">
-        <v>0.86017699115044244</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+        <v>0.8646017699115045</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
       <c r="B96">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C96">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D96">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E96">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F96">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G96">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H96">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I96">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
       <c r="B97">
-        <v>0.75223240980849693</v>
+        <v>0.45191435477082248</v>
       </c>
       <c r="C97">
-        <v>0.7415343956944036</v>
+        <v>0.74167904013767016</v>
       </c>
       <c r="D97">
-        <v>0.74921276764635736</v>
+        <v>0.74872040639660964</v>
       </c>
       <c r="E97">
-        <v>0.74143207160270697</v>
+        <v>0.73992854309119571</v>
       </c>
       <c r="F97">
-        <v>0.73728826916094825</v>
+        <v>0.73212857139942233</v>
       </c>
       <c r="G97">
-        <v>0.73909805936333373</v>
+        <v>0.73948967234156338</v>
       </c>
       <c r="H97">
-        <v>0.75075982941528285</v>
+        <v>0.7500509685462633</v>
       </c>
       <c r="I97">
-        <v>0.73668125318101874</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74347147090489041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
       <c r="B98">
-        <v>0.75565007805945172</v>
+        <v>0.4834295304997836</v>
       </c>
       <c r="C98">
-        <v>0.7458116242261299</v>
+        <v>0.74570371874480279</v>
       </c>
       <c r="D98">
-        <v>0.75361302681350373</v>
+        <v>0.75129300719245173</v>
       </c>
       <c r="E98">
-        <v>0.74491872960937111</v>
+        <v>0.7429352075230452</v>
       </c>
       <c r="F98">
-        <v>0.74232327273207699</v>
+        <v>0.73842433237667227</v>
       </c>
       <c r="G98">
-        <v>0.74321829309646603</v>
+        <v>0.74378386970299437</v>
       </c>
       <c r="H98">
-        <v>0.75441276183895867</v>
+        <v>0.75385285415213787</v>
       </c>
       <c r="I98">
-        <v>0.74110394028228066</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.74684219230890991</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
       <c r="B99">
-        <v>0.76030110285253905</v>
+        <v>0.52517248409274941</v>
       </c>
       <c r="C99">
-        <v>0.75128517689708219</v>
+        <v>0.75113363554325607</v>
       </c>
       <c r="D99">
-        <v>0.75724205476213735</v>
+        <v>0.75569324226199253</v>
       </c>
       <c r="E99">
-        <v>0.74978408834054755</v>
+        <v>0.74839396494972288</v>
       </c>
       <c r="F99">
-        <v>0.74946048218436134</v>
+        <v>0.74470896382332741</v>
       </c>
       <c r="G99">
-        <v>0.74882371759365562</v>
+        <v>0.7492237815007089</v>
       </c>
       <c r="H99">
-        <v>0.75850986732845715</v>
+        <v>0.75731407461203493</v>
       </c>
       <c r="I99">
-        <v>0.74677607454431738</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.75271844974994939</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
       <c r="B100">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C100">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D100">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E100">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F100">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G100">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H100">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I100">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
       <c r="B101">
-        <v>0.72185840707964599</v>
+        <v>0.42007374631268429</v>
       </c>
       <c r="C101">
-        <v>0.71280235988200591</v>
+        <v>0.71246312684365765</v>
       </c>
       <c r="D101">
-        <v>0.71952802359881995</v>
+        <v>0.71861356932153397</v>
       </c>
       <c r="E101">
-        <v>0.71154867256637166</v>
+        <v>0.70977876106194693</v>
       </c>
       <c r="F101">
-        <v>0.70839233038348071</v>
+        <v>0.70324483775811208</v>
       </c>
       <c r="G101">
-        <v>0.70966076696165181</v>
+        <v>0.71023598820058997</v>
       </c>
       <c r="H101">
-        <v>0.72190265486725658</v>
+        <v>0.72072271386430675</v>
       </c>
       <c r="I101">
-        <v>0.70877581120943955</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71584070796460164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
       <c r="B102">
-        <v>0.72325677763730856</v>
+        <v>0.43310226155358889</v>
       </c>
       <c r="C102">
-        <v>0.71472924568057306</v>
+        <v>0.71413681696867537</v>
       </c>
       <c r="D102">
-        <v>0.72140679870768365</v>
+        <v>0.71967376035960107</v>
       </c>
       <c r="E102">
-        <v>0.71301973591796597</v>
+        <v>0.71110443882567775</v>
       </c>
       <c r="F102">
-        <v>0.7105734653743504</v>
+        <v>0.70584211265627195</v>
       </c>
       <c r="G102">
-        <v>0.71142786908273625</v>
+        <v>0.71200906026127275</v>
       </c>
       <c r="H102">
-        <v>0.7235391206630144</v>
+        <v>0.72234126984126967</v>
       </c>
       <c r="I102">
-        <v>0.71067811490377863</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71736304256215755</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
       <c r="B103">
-        <v>0.72413532427085325</v>
+        <v>0.44137392430668798</v>
       </c>
       <c r="C103">
-        <v>0.71570067085624189</v>
+        <v>0.71493795019210093</v>
       </c>
       <c r="D103">
-        <v>0.72209482924078139</v>
+        <v>0.72059889693637558</v>
       </c>
       <c r="E103">
-        <v>0.71394505844708278</v>
+        <v>0.7120941084865916</v>
       </c>
       <c r="F103">
-        <v>0.71195529433083737</v>
+        <v>0.70689506514116796</v>
       </c>
       <c r="G103">
-        <v>0.71240030930980858</v>
+        <v>0.71298017721829265</v>
       </c>
       <c r="H103">
-        <v>0.72425221734611522</v>
+        <v>0.72285130294618338</v>
       </c>
       <c r="I103">
-        <v>0.71162156178649771</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.71827337168777072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>18</v>
       </c>
       <c r="B104">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="C104">
-        <v>0.62300884955752212</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="D104">
-        <v>0.62743362831858396</v>
+        <v>0.62566371681415922</v>
       </c>
       <c r="E104">
-        <v>0.61946902654867253</v>
+        <v>0.61592920353982294</v>
       </c>
       <c r="F104">
-        <v>0.61946902654867253</v>
+        <v>0.61327433628318573</v>
       </c>
       <c r="G104">
-        <v>0.62035398230088501</v>
+        <v>0.62212389380530975</v>
       </c>
       <c r="H104">
-        <v>0.63274336283185839</v>
+        <v>0.63185840707964602</v>
       </c>
       <c r="I104">
-        <v>0.62300884955752212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.63185840707964602</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
       <c r="B105">
-        <v>0.84070796460176989</v>
+        <v>0.54778761061946901</v>
       </c>
       <c r="C105">
-        <v>0.82477876106194681</v>
+        <v>0.82654867256637166</v>
       </c>
       <c r="D105">
-        <v>0.83539823008849545</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="E105">
-        <v>0.82831858407079628</v>
+        <v>0.82743362831858391</v>
       </c>
       <c r="F105">
-        <v>0.82123893805309733</v>
+        <v>0.81592920353982312</v>
       </c>
       <c r="G105">
         <v>0.82477876106194681</v>
       </c>
       <c r="H105">
-        <v>0.8345132743362832</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="I105">
-        <v>0.81769911504424775</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.82389380530973444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
       <c r="B106">
-        <v>0.85132743362831853</v>
+        <v>0.64513274336283177</v>
       </c>
       <c r="C106">
-        <v>0.8371681415929203</v>
+        <v>0.83893805309734515</v>
       </c>
       <c r="D106">
-        <v>0.84867256637168142</v>
+        <v>0.84424778761061958</v>
       </c>
       <c r="E106">
-        <v>0.83893805309734515</v>
+        <v>0.83628318584070782</v>
       </c>
       <c r="F106">
-        <v>0.83628318584070804</v>
+        <v>0.83539823008849567</v>
       </c>
       <c r="G106">
-        <v>0.8371681415929203</v>
+        <v>0.83805309734513267</v>
       </c>
       <c r="H106">
-        <v>0.84513274336283184</v>
+        <v>0.84690265486725669</v>
       </c>
       <c r="I106">
-        <v>0.83097345132743372</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.83362831858407083</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
       <c r="B107">
-        <v>0.87433628318584078</v>
+        <v>0.84424778761061936</v>
       </c>
       <c r="C107">
+        <v>0.86814159292035398</v>
+      </c>
+      <c r="D107">
         <v>0.86460176991150439</v>
       </c>
-      <c r="D107">
-        <v>0.86637168141592924</v>
-      </c>
       <c r="E107">
-        <v>0.86283185840707977</v>
+        <v>0.86371681415929191</v>
       </c>
       <c r="F107">
-        <v>0.87079646017699108</v>
+        <v>0.86725663716814161</v>
       </c>
       <c r="G107">
         <v>0.86548672566371676</v>
@@ -11393,7 +11387,7 @@
         <v>0.86548672566371676</v>
       </c>
       <c r="I107">
-        <v>0.86017699115044244</v>
+        <v>0.8646017699115045</v>
       </c>
     </row>
   </sheetData>
@@ -11413,17 +11407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEBD0B-6C2A-4EF8-8936-3C4C027D1B7C}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AB10"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>84</v>
       </c>
@@ -11470,7 +11464,7 @@
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
     </row>
-    <row r="2" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
         <v>87</v>
@@ -11557,7 +11551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -11634,19 +11628,19 @@
         <v>4.3859649122807001E-5</v>
       </c>
       <c r="Z3" s="18">
-        <v>0.62920353982300892</v>
+        <v>0.34424778761061942</v>
       </c>
       <c r="AA3" s="13">
-        <v>0.84070796460176989</v>
+        <v>0.54778761061946901</v>
       </c>
       <c r="AB3" s="18">
-        <v>0.75223240980849693</v>
+        <v>0.45191435477082248</v>
       </c>
       <c r="AC3" s="13">
-        <v>0.72185840707964599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0.42007374631268429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -11722,20 +11716,20 @@
       <c r="Y4" s="11">
         <v>1.49521531100478E-5</v>
       </c>
-      <c r="Z4" s="24">
-        <v>0.62035398230088501</v>
-      </c>
-      <c r="AA4" s="24">
+      <c r="Z4" s="11">
+        <v>0.62212389380530975</v>
+      </c>
+      <c r="AA4" s="11">
         <v>0.82477876106194681</v>
       </c>
-      <c r="AB4" s="24">
-        <v>0.73909805936333373</v>
-      </c>
-      <c r="AC4" s="24">
-        <v>0.70966076696165181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AB4" s="11">
+        <v>0.73948967234156338</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0.71023598820058997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
@@ -11811,20 +11805,20 @@
       <c r="Y5" s="15">
         <v>4.4956140350869999E-4</v>
       </c>
-      <c r="Z5" s="24">
-        <v>0.61946902654867253</v>
-      </c>
-      <c r="AA5" s="24">
-        <v>0.82123893805309733</v>
-      </c>
-      <c r="AB5" s="24">
-        <v>0.73728826916094825</v>
-      </c>
-      <c r="AC5" s="24">
-        <v>0.70839233038348071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z5" s="11">
+        <v>0.61327433628318573</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>0.81592920353982312</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>0.73212857139942233</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>0.70324483775811208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
@@ -11900,20 +11894,20 @@
       <c r="Y6" s="11">
         <v>3.2894736842099999E-4</v>
       </c>
-      <c r="Z6" s="24">
-        <v>0.62300884955752212</v>
-      </c>
-      <c r="AA6" s="24">
-        <v>0.82477876106194681</v>
-      </c>
-      <c r="AB6" s="24">
-        <v>0.7415343956944036</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>0.71280235988200591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z6" s="11">
+        <v>0.62212389380530975</v>
+      </c>
+      <c r="AA6" s="11">
+        <v>0.82654867256637166</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>0.74167904013767016</v>
+      </c>
+      <c r="AC6" s="11">
+        <v>0.71246312684365765</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -11989,20 +11983,20 @@
       <c r="Y7" s="11">
         <v>0</v>
       </c>
-      <c r="Z7" s="24">
-        <v>0.61946902654867253</v>
-      </c>
-      <c r="AA7" s="24">
-        <v>0.82831858407079628</v>
-      </c>
-      <c r="AB7" s="24">
-        <v>0.74143207160270697</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>0.71154867256637166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Z7" s="11">
+        <v>0.61592920353982294</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0.82743362831858391</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>0.73992854309119571</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0.70977876106194693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -12078,20 +12072,20 @@
       <c r="Y8" s="16">
         <v>1.2260765550239001E-3</v>
       </c>
-      <c r="Z8" s="24">
-        <v>0.62743362831858396</v>
+      <c r="Z8" s="11">
+        <v>0.62566371681415922</v>
       </c>
       <c r="AA8" s="15">
-        <v>0.83539823008849545</v>
-      </c>
-      <c r="AB8" s="24">
-        <v>0.74921276764635736</v>
+        <v>0.83628318584070782</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>0.74872040639660964</v>
       </c>
       <c r="AC8" s="15">
-        <v>0.71952802359881995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.71861356932153397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -12168,19 +12162,19 @@
         <v>1.3157894736839999E-4</v>
       </c>
       <c r="Z9" s="16">
-        <v>0.63274336283185839</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>0.8345132743362832</v>
+        <v>0.63185840707964602</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>0.83539823008849567</v>
       </c>
       <c r="AB9" s="16">
-        <v>0.75075982941528285</v>
+        <v>0.7500509685462633</v>
       </c>
       <c r="AC9" s="16">
-        <v>0.72190265486725658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0.72072271386430675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -12256,17 +12250,17 @@
       <c r="Y10" s="12">
         <v>8.8079986149584404E-5</v>
       </c>
-      <c r="Z10" s="25">
-        <v>0.62300884955752212</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>0.81769911504424775</v>
-      </c>
-      <c r="AB10" s="25">
-        <v>0.73668125318101874</v>
-      </c>
-      <c r="AC10" s="25">
-        <v>0.70877581120943955</v>
+      <c r="Z10" s="12">
+        <v>0.63185840707964602</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0.82389380530973444</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0.74347147090489041</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0.71584070796460164</v>
       </c>
     </row>
   </sheetData>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE9C910-FA39-4DE0-BC5F-D30F31493DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875CC13-A205-4444-9B9F-A20CAFB7BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,11 +612,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -928,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F85FE2-0E4A-4FDA-8B9D-4C7A407A54D4}">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A134" sqref="A134:I153"/>
     </sheetView>
   </sheetViews>
@@ -11407,8 +11480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEBD0B-6C2A-4EF8-8936-3C4C027D1B7C}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11627,16 +11700,16 @@
       <c r="Y3" s="10">
         <v>4.3859649122807001E-5</v>
       </c>
-      <c r="Z3" s="18">
-        <v>0.34424778761061942</v>
-      </c>
-      <c r="AA3" s="13">
+      <c r="Z3" s="27">
+        <v>0.34424778761061903</v>
+      </c>
+      <c r="AA3" s="27">
         <v>0.54778761061946901</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="27">
         <v>0.45191435477082248</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="27">
         <v>0.42007374631268429</v>
       </c>
     </row>
@@ -11716,16 +11789,16 @@
       <c r="Y4" s="11">
         <v>1.49521531100478E-5</v>
       </c>
-      <c r="Z4" s="11">
+      <c r="Z4" s="28">
         <v>0.62212389380530975</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="28">
         <v>0.82477876106194681</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB4" s="28">
         <v>0.73948967234156338</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC4" s="28">
         <v>0.71023598820058997</v>
       </c>
     </row>
@@ -11805,16 +11878,16 @@
       <c r="Y5" s="15">
         <v>4.4956140350869999E-4</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="28">
         <v>0.61327433628318573</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="28">
         <v>0.81592920353982312</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="28">
         <v>0.73212857139942233</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="28">
         <v>0.70324483775811208</v>
       </c>
     </row>
@@ -11894,16 +11967,16 @@
       <c r="Y6" s="11">
         <v>3.2894736842099999E-4</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="28">
         <v>0.62212389380530975</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="28">
         <v>0.82654867256637166</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="28">
         <v>0.74167904013767016</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="28">
         <v>0.71246312684365765</v>
       </c>
     </row>
@@ -11983,16 +12056,16 @@
       <c r="Y7" s="11">
         <v>0</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="28">
         <v>0.61592920353982294</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="28">
         <v>0.82743362831858391</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="28">
         <v>0.73992854309119571</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="28">
         <v>0.70977876106194693</v>
       </c>
     </row>
@@ -12072,16 +12145,16 @@
       <c r="Y8" s="16">
         <v>1.2260765550239001E-3</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="24">
         <v>0.62566371681415922</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="AA8" s="25">
         <v>0.83628318584070782</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="24">
         <v>0.74872040639660964</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="24">
         <v>0.71861356932153397</v>
       </c>
     </row>
@@ -12161,16 +12234,16 @@
       <c r="Y9" s="11">
         <v>1.3157894736839999E-4</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="25">
         <v>0.63185840707964602</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="24">
         <v>0.83539823008849567</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="25">
         <v>0.7500509685462633</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="25">
         <v>0.72072271386430675</v>
       </c>
     </row>
@@ -12250,16 +12323,16 @@
       <c r="Y10" s="12">
         <v>8.8079986149584404E-5</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="26">
         <v>0.63185840707964602</v>
       </c>
-      <c r="AA10" s="12">
+      <c r="AA10" s="29">
         <v>0.82389380530973444</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="29">
         <v>0.74347147090489041</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AC10" s="29">
         <v>0.71584070796460164</v>
       </c>
     </row>
@@ -12275,6 +12348,56 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F10">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -12284,7 +12407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
+  <conditionalFormatting sqref="H3:H10">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -12294,7 +12417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
+  <conditionalFormatting sqref="I3:I10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -12304,7 +12427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E10">
+  <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -12314,7 +12437,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F10">
+  <conditionalFormatting sqref="K3:K10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -12324,7 +12447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="L3:L10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -12334,7 +12457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
+  <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -12344,7 +12467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I10">
+  <conditionalFormatting sqref="N3:N10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -12354,7 +12477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10">
+  <conditionalFormatting sqref="O3:O10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -12364,7 +12487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K10">
+  <conditionalFormatting sqref="P3:P10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -12374,7 +12497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10">
+  <conditionalFormatting sqref="Q3:Q10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12384,7 +12507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
+  <conditionalFormatting sqref="R3:R10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -12394,7 +12517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N10">
+  <conditionalFormatting sqref="S3:S10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -12404,7 +12527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O10">
+  <conditionalFormatting sqref="T3:T10">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -12414,7 +12537,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P10">
+  <conditionalFormatting sqref="U3:U10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12424,7 +12547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10">
+  <conditionalFormatting sqref="V3:V10">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -12434,7 +12557,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R10">
+  <conditionalFormatting sqref="W3:W10">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -12444,7 +12567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S10">
+  <conditionalFormatting sqref="X3:X10">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -12454,7 +12577,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T10">
+  <conditionalFormatting sqref="Y3:Y10">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -12464,95 +12587,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U10">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W10">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X10">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y10">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z10">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+    <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+    <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB10">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+    <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+    <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Github\Fani-Lab\lady\main\output\SemEval-14\Restaurants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6875CC13-A205-4444-9B9F-A20CAFB7BCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76E9D57-96F2-43F8-9AB8-9C5290BD305A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="124">
   <si>
     <t>20.btm.0.0</t>
   </si>
@@ -360,6 +360,57 @@
   <si>
     <t>all.cat</t>
   </si>
+  <si>
+    <t>bert-e2e-absa</t>
+  </si>
+  <si>
+    <t>BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>arabic.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>german.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>french.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>farsi.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>chinese.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>spanish.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>all.BERT-E2E-ABSA</t>
+  </si>
+  <si>
+    <t>BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>arb_Arab.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>deu_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>fra_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>zho_Hans.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>spa_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
+  <si>
+    <t>pes_Arab.zho_Hans.deu_Latn.arb_Arab.fra_Latn.spa_Latn.BERT-E2E-ABSA.0.0</t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,29 +663,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -669,20 +702,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -999,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F85FE2-0E4A-4FDA-8B9D-4C7A407A54D4}">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:I153"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:L176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5273,6 +5292,615 @@
         <v>0.8646017699115045</v>
       </c>
     </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" t="s">
+        <v>118</v>
+      </c>
+      <c r="E156" t="s">
+        <v>119</v>
+      </c>
+      <c r="F156" t="s">
+        <v>120</v>
+      </c>
+      <c r="G156" t="s">
+        <v>121</v>
+      </c>
+      <c r="H156" t="s">
+        <v>122</v>
+      </c>
+      <c r="I156" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C157">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="D157">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="E157">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="F157">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="G157">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="H157">
+        <v>0.6</v>
+      </c>
+      <c r="I157">
+        <v>0.58653198653198657</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158">
+        <v>0.29063973063973059</v>
+      </c>
+      <c r="C158">
+        <v>0.28700336700336698</v>
+      </c>
+      <c r="D158">
+        <v>0.28740740740740739</v>
+      </c>
+      <c r="E158">
+        <v>0.28552188552188551</v>
+      </c>
+      <c r="F158">
+        <v>0.28013468013468013</v>
+      </c>
+      <c r="G158">
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="H158">
+        <v>0.28808080808080799</v>
+      </c>
+      <c r="I158">
+        <v>0.28929292929292932</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>0.1831649831649832</v>
+      </c>
+      <c r="C159">
+        <v>0.1771043771043771</v>
+      </c>
+      <c r="D159">
+        <v>0.17838383838383839</v>
+      </c>
+      <c r="E159">
+        <v>0.17717171717171709</v>
+      </c>
+      <c r="F159">
+        <v>0.17784511784511789</v>
+      </c>
+      <c r="G159">
+        <v>0.1805387205387205</v>
+      </c>
+      <c r="H159">
+        <v>0.18074074074074081</v>
+      </c>
+      <c r="I159">
+        <v>0.17919191919191921</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="C160">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="D160">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="E160">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="F160">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="G160">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="H160">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="I160">
+        <v>2.134680134680135E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161">
+        <v>0.35702186702186711</v>
+      </c>
+      <c r="C161">
+        <v>0.35792401014623237</v>
+      </c>
+      <c r="D161">
+        <v>0.35545059878393209</v>
+      </c>
+      <c r="E161">
+        <v>0.35681933666782162</v>
+      </c>
+      <c r="F161">
+        <v>0.3547761778064808</v>
+      </c>
+      <c r="G161">
+        <v>0.36060478616034181</v>
+      </c>
+      <c r="H161">
+        <v>0.35475635475635481</v>
+      </c>
+      <c r="I161">
+        <v>0.34933897752079568</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162">
+        <v>0.65639569558761479</v>
+      </c>
+      <c r="C162">
+        <v>0.65580942626397176</v>
+      </c>
+      <c r="D162">
+        <v>0.65528643074097626</v>
+      </c>
+      <c r="E162">
+        <v>0.65156188368309587</v>
+      </c>
+      <c r="F162">
+        <v>0.63900043652568894</v>
+      </c>
+      <c r="G162">
+        <v>0.66274732375742473</v>
+      </c>
+      <c r="H162">
+        <v>0.65810557941871062</v>
+      </c>
+      <c r="I162">
+        <v>0.65660608190911218</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>0.78026496885082752</v>
+      </c>
+      <c r="C163">
+        <v>0.76407159432411953</v>
+      </c>
+      <c r="D163">
+        <v>0.76866190861140349</v>
+      </c>
+      <c r="E163">
+        <v>0.76665677009111355</v>
+      </c>
+      <c r="F163">
+        <v>0.76579771519165463</v>
+      </c>
+      <c r="G163">
+        <v>0.77491438041943073</v>
+      </c>
+      <c r="H163">
+        <v>0.77586959804131528</v>
+      </c>
+      <c r="I163">
+        <v>0.77198653011784324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="C164">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="D164">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="E164">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="F164">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="G164">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="H164">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="I164">
+        <v>0.8622817511706401</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C165">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="D165">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="E165">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="F165">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="G165">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="H165">
+        <v>0.6</v>
+      </c>
+      <c r="I165">
+        <v>0.58653198653198657</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166">
+        <v>0.62926086449320373</v>
+      </c>
+      <c r="C166">
+        <v>0.62856675784980909</v>
+      </c>
+      <c r="D166">
+        <v>0.62749059585687361</v>
+      </c>
+      <c r="E166">
+        <v>0.62533947681908519</v>
+      </c>
+      <c r="F166">
+        <v>0.61658245862448635</v>
+      </c>
+      <c r="G166">
+        <v>0.6337601998743978</v>
+      </c>
+      <c r="H166">
+        <v>0.62775076790687012</v>
+      </c>
+      <c r="I166">
+        <v>0.62544226813109483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167">
+        <v>0.67740192062498739</v>
+      </c>
+      <c r="C167">
+        <v>0.66947580626438219</v>
+      </c>
+      <c r="D167">
+        <v>0.67021718335600655</v>
+      </c>
+      <c r="E167">
+        <v>0.66831049751389371</v>
+      </c>
+      <c r="F167">
+        <v>0.66508652180837691</v>
+      </c>
+      <c r="G167">
+        <v>0.6761614711451982</v>
+      </c>
+      <c r="H167">
+        <v>0.67299660740822786</v>
+      </c>
+      <c r="I167">
+        <v>0.66862626366821676</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168">
+        <v>0.70638478055076692</v>
+      </c>
+      <c r="C168">
+        <v>0.70449899544024475</v>
+      </c>
+      <c r="D168">
+        <v>0.70387752046902841</v>
+      </c>
+      <c r="E168">
+        <v>0.70308095065463694</v>
+      </c>
+      <c r="F168">
+        <v>0.69964494694238766</v>
+      </c>
+      <c r="G168">
+        <v>0.70738928708286708</v>
+      </c>
+      <c r="H168">
+        <v>0.70409116301694552</v>
+      </c>
+      <c r="I168">
+        <v>0.70097159966362388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169">
+        <v>0.35702186702186711</v>
+      </c>
+      <c r="C169">
+        <v>0.35792401014623237</v>
+      </c>
+      <c r="D169">
+        <v>0.35545059878393209</v>
+      </c>
+      <c r="E169">
+        <v>0.35681933666782162</v>
+      </c>
+      <c r="F169">
+        <v>0.3547761778064808</v>
+      </c>
+      <c r="G169">
+        <v>0.36060478616034181</v>
+      </c>
+      <c r="H169">
+        <v>0.35475635475635481</v>
+      </c>
+      <c r="I169">
+        <v>0.34933897752079568</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>0.55465431513242958</v>
+      </c>
+      <c r="C170">
+        <v>0.55391576785852881</v>
+      </c>
+      <c r="D170">
+        <v>0.55248317856230311</v>
+      </c>
+      <c r="E170">
+        <v>0.54957828547559184</v>
+      </c>
+      <c r="F170">
+        <v>0.54323855605673788</v>
+      </c>
+      <c r="G170">
+        <v>0.55885642260221391</v>
+      </c>
+      <c r="H170">
+        <v>0.55140218585504785</v>
+      </c>
+      <c r="I170">
+        <v>0.54860764164131171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171">
+        <v>0.59308523860461881</v>
+      </c>
+      <c r="C171">
+        <v>0.58556152498236036</v>
+      </c>
+      <c r="D171">
+        <v>0.5857779532528411</v>
+      </c>
+      <c r="E171">
+        <v>0.58234833728362267</v>
+      </c>
+      <c r="F171">
+        <v>0.57905944235026718</v>
+      </c>
+      <c r="G171">
+        <v>0.59173566100776709</v>
+      </c>
+      <c r="H171">
+        <v>0.58703812593679516</v>
+      </c>
+      <c r="I171">
+        <v>0.58206664072318637</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172">
+        <v>0.60990718693905921</v>
+      </c>
+      <c r="C172">
+        <v>0.60542205537718519</v>
+      </c>
+      <c r="D172">
+        <v>0.605220503749751</v>
+      </c>
+      <c r="E172">
+        <v>0.60284368007169209</v>
+      </c>
+      <c r="F172">
+        <v>0.59914681290098737</v>
+      </c>
+      <c r="G172">
+        <v>0.60986374537109467</v>
+      </c>
+      <c r="H172">
+        <v>0.60531008079304338</v>
+      </c>
+      <c r="I172">
+        <v>0.60085522247816581</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C173">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="D173">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="E173">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="F173">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="G173">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="H173">
+        <v>0.6</v>
+      </c>
+      <c r="I173">
+        <v>0.58653198653198657</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174">
+        <v>0.85050505050505054</v>
+      </c>
+      <c r="C174">
+        <v>0.84915824915824911</v>
+      </c>
+      <c r="D174">
+        <v>0.85252525252525257</v>
+      </c>
+      <c r="E174">
+        <v>0.84915824915824911</v>
+      </c>
+      <c r="F174">
+        <v>0.83905723905723906</v>
+      </c>
+      <c r="G174">
+        <v>0.8484848484848484</v>
+      </c>
+      <c r="H174">
+        <v>0.85993265993265988</v>
+      </c>
+      <c r="I174">
+        <v>0.85252525252525257</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175">
+        <v>0.90437710437710439</v>
+      </c>
+      <c r="C175">
+        <v>0.90639730639730642</v>
+      </c>
+      <c r="D175">
+        <v>0.9111111111111112</v>
+      </c>
+      <c r="E175">
+        <v>0.91245791245791241</v>
+      </c>
+      <c r="F175">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="G175">
+        <v>0.9111111111111112</v>
+      </c>
+      <c r="H175">
+        <v>0.91178451178451181</v>
+      </c>
+      <c r="I175">
+        <v>0.91313131313131324</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="C176">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="D176">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="E176">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="F176">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="G176">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="H176">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="I176">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5280,10 +5908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF62CF1-97FC-4058-A503-F60A3077AEA3}">
-  <dimension ref="A1:CJ107"/>
+  <dimension ref="A1:CJ131"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:I107"/>
+    <sheetView topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11144,7 +11772,7 @@
         <v>0.63185840707964602</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -11173,7 +11801,7 @@
         <v>0.74347147090489041</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -11202,7 +11830,7 @@
         <v>0.74684219230890991</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -11231,7 +11859,7 @@
         <v>0.75271844974994939</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -11260,7 +11888,7 @@
         <v>0.63185840707964602</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -11289,7 +11917,7 @@
         <v>0.71584070796460164</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -11318,7 +11946,7 @@
         <v>0.71736304256215755</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -11347,7 +11975,7 @@
         <v>0.71827337168777072</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -11376,7 +12004,7 @@
         <v>0.63185840707964602</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -11405,7 +12033,7 @@
         <v>0.82389380530973444</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -11434,7 +12062,7 @@
         <v>0.83362831858407083</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -11461,6 +12089,1182 @@
       </c>
       <c r="I107">
         <v>0.8646017699115045</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>111</v>
+      </c>
+      <c r="F111" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" t="s">
+        <v>113</v>
+      </c>
+      <c r="H111" t="s">
+        <v>114</v>
+      </c>
+      <c r="I111" t="s">
+        <v>115</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1</v>
+      </c>
+      <c r="M111" t="s">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>4</v>
+      </c>
+      <c r="P111" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>6</v>
+      </c>
+      <c r="R111" t="s">
+        <v>7</v>
+      </c>
+      <c r="S111" t="s">
+        <v>8</v>
+      </c>
+      <c r="T111" t="s">
+        <v>9</v>
+      </c>
+      <c r="U111" t="s">
+        <v>10</v>
+      </c>
+      <c r="V111" t="s">
+        <v>11</v>
+      </c>
+      <c r="W111" t="s">
+        <v>12</v>
+      </c>
+      <c r="X111" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C112">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="D112">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="E112">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="F112">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="G112">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="H112">
+        <v>0.6</v>
+      </c>
+      <c r="I112">
+        <v>0.58653198653198657</v>
+      </c>
+      <c r="L112" t="s">
+        <v>108</v>
+      </c>
+      <c r="M112">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="N112">
+        <v>0.29063973063973059</v>
+      </c>
+      <c r="O112">
+        <v>0.1831649831649832</v>
+      </c>
+      <c r="P112">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q112">
+        <v>0.35702186702186711</v>
+      </c>
+      <c r="R112">
+        <v>0.65639569558761479</v>
+      </c>
+      <c r="S112">
+        <v>0.78026496885082752</v>
+      </c>
+      <c r="T112">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U112">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="V112">
+        <v>0.62926086449320373</v>
+      </c>
+      <c r="W112">
+        <v>0.67740192062498739</v>
+      </c>
+      <c r="X112">
+        <v>0.70638478055076692</v>
+      </c>
+      <c r="Y112">
+        <v>0.35702186702186711</v>
+      </c>
+      <c r="Z112">
+        <v>0.55465431513242958</v>
+      </c>
+      <c r="AA112">
+        <v>0.59308523860461881</v>
+      </c>
+      <c r="AB112">
+        <v>0.60990718693905921</v>
+      </c>
+      <c r="AC112">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="AD112">
+        <v>0.85050505050505054</v>
+      </c>
+      <c r="AE112">
+        <v>0.90437710437710439</v>
+      </c>
+      <c r="AF112">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>0.29063973063973059</v>
+      </c>
+      <c r="C113">
+        <v>0.28700336700336698</v>
+      </c>
+      <c r="D113">
+        <v>0.28740740740740739</v>
+      </c>
+      <c r="E113">
+        <v>0.28552188552188551</v>
+      </c>
+      <c r="F113">
+        <v>0.28013468013468013</v>
+      </c>
+      <c r="G113">
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="H113">
+        <v>0.28808080808080799</v>
+      </c>
+      <c r="I113">
+        <v>0.28929292929292932</v>
+      </c>
+      <c r="L113" t="s">
+        <v>109</v>
+      </c>
+      <c r="M113">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="N113">
+        <v>0.28700336700336698</v>
+      </c>
+      <c r="O113">
+        <v>0.1771043771043771</v>
+      </c>
+      <c r="P113">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q113">
+        <v>0.35792401014623237</v>
+      </c>
+      <c r="R113">
+        <v>0.65580942626397176</v>
+      </c>
+      <c r="S113">
+        <v>0.76407159432411953</v>
+      </c>
+      <c r="T113">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U113">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="V113">
+        <v>0.62856675784980909</v>
+      </c>
+      <c r="W113">
+        <v>0.66947580626438219</v>
+      </c>
+      <c r="X113">
+        <v>0.70449899544024475</v>
+      </c>
+      <c r="Y113">
+        <v>0.35792401014623237</v>
+      </c>
+      <c r="Z113">
+        <v>0.55391576785852881</v>
+      </c>
+      <c r="AA113">
+        <v>0.58556152498236036</v>
+      </c>
+      <c r="AB113">
+        <v>0.60542205537718519</v>
+      </c>
+      <c r="AC113">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="AD113">
+        <v>0.84915824915824911</v>
+      </c>
+      <c r="AE113">
+        <v>0.90639730639730642</v>
+      </c>
+      <c r="AF113">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114">
+        <v>0.1831649831649832</v>
+      </c>
+      <c r="C114">
+        <v>0.1771043771043771</v>
+      </c>
+      <c r="D114">
+        <v>0.17838383838383839</v>
+      </c>
+      <c r="E114">
+        <v>0.17717171717171709</v>
+      </c>
+      <c r="F114">
+        <v>0.17784511784511789</v>
+      </c>
+      <c r="G114">
+        <v>0.1805387205387205</v>
+      </c>
+      <c r="H114">
+        <v>0.18074074074074081</v>
+      </c>
+      <c r="I114">
+        <v>0.17919191919191921</v>
+      </c>
+      <c r="L114" t="s">
+        <v>110</v>
+      </c>
+      <c r="M114">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="N114">
+        <v>0.28740740740740739</v>
+      </c>
+      <c r="O114">
+        <v>0.17838383838383839</v>
+      </c>
+      <c r="P114">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q114">
+        <v>0.35545059878393209</v>
+      </c>
+      <c r="R114">
+        <v>0.65528643074097626</v>
+      </c>
+      <c r="S114">
+        <v>0.76866190861140349</v>
+      </c>
+      <c r="T114">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U114">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="V114">
+        <v>0.62749059585687361</v>
+      </c>
+      <c r="W114">
+        <v>0.67021718335600655</v>
+      </c>
+      <c r="X114">
+        <v>0.70387752046902841</v>
+      </c>
+      <c r="Y114">
+        <v>0.35545059878393209</v>
+      </c>
+      <c r="Z114">
+        <v>0.55248317856230311</v>
+      </c>
+      <c r="AA114">
+        <v>0.5857779532528411</v>
+      </c>
+      <c r="AB114">
+        <v>0.605220503749751</v>
+      </c>
+      <c r="AC114">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="AD114">
+        <v>0.85252525252525257</v>
+      </c>
+      <c r="AE114">
+        <v>0.9111111111111112</v>
+      </c>
+      <c r="AF114">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="C115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="D115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="E115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="F115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="G115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="H115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="I115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="L115" t="s">
+        <v>111</v>
+      </c>
+      <c r="M115">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="N115">
+        <v>0.28552188552188551</v>
+      </c>
+      <c r="O115">
+        <v>0.17717171717171709</v>
+      </c>
+      <c r="P115">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q115">
+        <v>0.35681933666782162</v>
+      </c>
+      <c r="R115">
+        <v>0.65156188368309587</v>
+      </c>
+      <c r="S115">
+        <v>0.76665677009111355</v>
+      </c>
+      <c r="T115">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U115">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="V115">
+        <v>0.62533947681908519</v>
+      </c>
+      <c r="W115">
+        <v>0.66831049751389371</v>
+      </c>
+      <c r="X115">
+        <v>0.70308095065463694</v>
+      </c>
+      <c r="Y115">
+        <v>0.35681933666782162</v>
+      </c>
+      <c r="Z115">
+        <v>0.54957828547559184</v>
+      </c>
+      <c r="AA115">
+        <v>0.58234833728362267</v>
+      </c>
+      <c r="AB115">
+        <v>0.60284368007169209</v>
+      </c>
+      <c r="AC115">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="AD115">
+        <v>0.84915824915824911</v>
+      </c>
+      <c r="AE115">
+        <v>0.91245791245791241</v>
+      </c>
+      <c r="AF115">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>0.35702186702186711</v>
+      </c>
+      <c r="C116">
+        <v>0.35792401014623237</v>
+      </c>
+      <c r="D116">
+        <v>0.35545059878393209</v>
+      </c>
+      <c r="E116">
+        <v>0.35681933666782162</v>
+      </c>
+      <c r="F116">
+        <v>0.3547761778064808</v>
+      </c>
+      <c r="G116">
+        <v>0.36060478616034181</v>
+      </c>
+      <c r="H116">
+        <v>0.35475635475635481</v>
+      </c>
+      <c r="I116">
+        <v>0.34933897752079568</v>
+      </c>
+      <c r="L116" t="s">
+        <v>112</v>
+      </c>
+      <c r="M116">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="N116">
+        <v>0.28013468013468013</v>
+      </c>
+      <c r="O116">
+        <v>0.17784511784511789</v>
+      </c>
+      <c r="P116">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q116">
+        <v>0.3547761778064808</v>
+      </c>
+      <c r="R116">
+        <v>0.63900043652568894</v>
+      </c>
+      <c r="S116">
+        <v>0.76579771519165463</v>
+      </c>
+      <c r="T116">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U116">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="V116">
+        <v>0.61658245862448635</v>
+      </c>
+      <c r="W116">
+        <v>0.66508652180837691</v>
+      </c>
+      <c r="X116">
+        <v>0.69964494694238766</v>
+      </c>
+      <c r="Y116">
+        <v>0.3547761778064808</v>
+      </c>
+      <c r="Z116">
+        <v>0.54323855605673788</v>
+      </c>
+      <c r="AA116">
+        <v>0.57905944235026718</v>
+      </c>
+      <c r="AB116">
+        <v>0.59914681290098737</v>
+      </c>
+      <c r="AC116">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="AD116">
+        <v>0.83905723905723906</v>
+      </c>
+      <c r="AE116">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="AF116">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>0.65639569558761479</v>
+      </c>
+      <c r="C117">
+        <v>0.65580942626397176</v>
+      </c>
+      <c r="D117">
+        <v>0.65528643074097626</v>
+      </c>
+      <c r="E117">
+        <v>0.65156188368309587</v>
+      </c>
+      <c r="F117">
+        <v>0.63900043652568894</v>
+      </c>
+      <c r="G117">
+        <v>0.66274732375742473</v>
+      </c>
+      <c r="H117">
+        <v>0.65810557941871062</v>
+      </c>
+      <c r="I117">
+        <v>0.65660608190911218</v>
+      </c>
+      <c r="L117" t="s">
+        <v>113</v>
+      </c>
+      <c r="M117">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="N117">
+        <v>0.29090909090909089</v>
+      </c>
+      <c r="O117">
+        <v>0.1805387205387205</v>
+      </c>
+      <c r="P117">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q117">
+        <v>0.36060478616034181</v>
+      </c>
+      <c r="R117">
+        <v>0.66274732375742473</v>
+      </c>
+      <c r="S117">
+        <v>0.77491438041943073</v>
+      </c>
+      <c r="T117">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U117">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="V117">
+        <v>0.6337601998743978</v>
+      </c>
+      <c r="W117">
+        <v>0.6761614711451982</v>
+      </c>
+      <c r="X117">
+        <v>0.70738928708286708</v>
+      </c>
+      <c r="Y117">
+        <v>0.36060478616034181</v>
+      </c>
+      <c r="Z117">
+        <v>0.55885642260221391</v>
+      </c>
+      <c r="AA117">
+        <v>0.59173566100776709</v>
+      </c>
+      <c r="AB117">
+        <v>0.60986374537109467</v>
+      </c>
+      <c r="AC117">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="AD117">
+        <v>0.8484848484848484</v>
+      </c>
+      <c r="AE117">
+        <v>0.9111111111111112</v>
+      </c>
+      <c r="AF117">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>0.78026496885082752</v>
+      </c>
+      <c r="C118">
+        <v>0.76407159432411953</v>
+      </c>
+      <c r="D118">
+        <v>0.76866190861140349</v>
+      </c>
+      <c r="E118">
+        <v>0.76665677009111355</v>
+      </c>
+      <c r="F118">
+        <v>0.76579771519165463</v>
+      </c>
+      <c r="G118">
+        <v>0.77491438041943073</v>
+      </c>
+      <c r="H118">
+        <v>0.77586959804131528</v>
+      </c>
+      <c r="I118">
+        <v>0.77198653011784324</v>
+      </c>
+      <c r="L118" t="s">
+        <v>114</v>
+      </c>
+      <c r="M118">
+        <v>0.6</v>
+      </c>
+      <c r="N118">
+        <v>0.28808080808080799</v>
+      </c>
+      <c r="O118">
+        <v>0.18074074074074081</v>
+      </c>
+      <c r="P118">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q118">
+        <v>0.35475635475635481</v>
+      </c>
+      <c r="R118">
+        <v>0.65810557941871062</v>
+      </c>
+      <c r="S118">
+        <v>0.77586959804131528</v>
+      </c>
+      <c r="T118">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U118">
+        <v>0.6</v>
+      </c>
+      <c r="V118">
+        <v>0.62775076790687012</v>
+      </c>
+      <c r="W118">
+        <v>0.67299660740822786</v>
+      </c>
+      <c r="X118">
+        <v>0.70409116301694552</v>
+      </c>
+      <c r="Y118">
+        <v>0.35475635475635481</v>
+      </c>
+      <c r="Z118">
+        <v>0.55140218585504785</v>
+      </c>
+      <c r="AA118">
+        <v>0.58703812593679516</v>
+      </c>
+      <c r="AB118">
+        <v>0.60531008079304338</v>
+      </c>
+      <c r="AC118">
+        <v>0.6</v>
+      </c>
+      <c r="AD118">
+        <v>0.85993265993265988</v>
+      </c>
+      <c r="AE118">
+        <v>0.91178451178451181</v>
+      </c>
+      <c r="AF118">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="C119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="D119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="E119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="F119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="G119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="H119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="I119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="L119" t="s">
+        <v>115</v>
+      </c>
+      <c r="M119">
+        <v>0.58653198653198657</v>
+      </c>
+      <c r="N119">
+        <v>0.28929292929292932</v>
+      </c>
+      <c r="O119">
+        <v>0.17919191919191921</v>
+      </c>
+      <c r="P119">
+        <v>2.134680134680135E-2</v>
+      </c>
+      <c r="Q119">
+        <v>0.34933897752079568</v>
+      </c>
+      <c r="R119">
+        <v>0.65660608190911218</v>
+      </c>
+      <c r="S119">
+        <v>0.77198653011784324</v>
+      </c>
+      <c r="T119">
+        <v>0.8622817511706401</v>
+      </c>
+      <c r="U119">
+        <v>0.58653198653198657</v>
+      </c>
+      <c r="V119">
+        <v>0.62544226813109483</v>
+      </c>
+      <c r="W119">
+        <v>0.66862626366821676</v>
+      </c>
+      <c r="X119">
+        <v>0.70097159966362388</v>
+      </c>
+      <c r="Y119">
+        <v>0.34933897752079568</v>
+      </c>
+      <c r="Z119">
+        <v>0.54860764164131171</v>
+      </c>
+      <c r="AA119">
+        <v>0.58206664072318637</v>
+      </c>
+      <c r="AB119">
+        <v>0.60085522247816581</v>
+      </c>
+      <c r="AC119">
+        <v>0.58653198653198657</v>
+      </c>
+      <c r="AD119">
+        <v>0.85252525252525257</v>
+      </c>
+      <c r="AE119">
+        <v>0.91313131313131324</v>
+      </c>
+      <c r="AF119">
+        <v>0.92929292929292917</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C120">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="D120">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="E120">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="F120">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="G120">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="H120">
+        <v>0.6</v>
+      </c>
+      <c r="I120">
+        <v>0.58653198653198657</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121">
+        <v>0.62926086449320373</v>
+      </c>
+      <c r="C121">
+        <v>0.62856675784980909</v>
+      </c>
+      <c r="D121">
+        <v>0.62749059585687361</v>
+      </c>
+      <c r="E121">
+        <v>0.62533947681908519</v>
+      </c>
+      <c r="F121">
+        <v>0.61658245862448635</v>
+      </c>
+      <c r="G121">
+        <v>0.6337601998743978</v>
+      </c>
+      <c r="H121">
+        <v>0.62775076790687012</v>
+      </c>
+      <c r="I121">
+        <v>0.62544226813109483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122">
+        <v>0.67740192062498739</v>
+      </c>
+      <c r="C122">
+        <v>0.66947580626438219</v>
+      </c>
+      <c r="D122">
+        <v>0.67021718335600655</v>
+      </c>
+      <c r="E122">
+        <v>0.66831049751389371</v>
+      </c>
+      <c r="F122">
+        <v>0.66508652180837691</v>
+      </c>
+      <c r="G122">
+        <v>0.6761614711451982</v>
+      </c>
+      <c r="H122">
+        <v>0.67299660740822786</v>
+      </c>
+      <c r="I122">
+        <v>0.66862626366821676</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123">
+        <v>0.70638478055076692</v>
+      </c>
+      <c r="C123">
+        <v>0.70449899544024475</v>
+      </c>
+      <c r="D123">
+        <v>0.70387752046902841</v>
+      </c>
+      <c r="E123">
+        <v>0.70308095065463694</v>
+      </c>
+      <c r="F123">
+        <v>0.69964494694238766</v>
+      </c>
+      <c r="G123">
+        <v>0.70738928708286708</v>
+      </c>
+      <c r="H123">
+        <v>0.70409116301694552</v>
+      </c>
+      <c r="I123">
+        <v>0.70097159966362388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <v>0.35702186702186711</v>
+      </c>
+      <c r="C124">
+        <v>0.35792401014623237</v>
+      </c>
+      <c r="D124">
+        <v>0.35545059878393209</v>
+      </c>
+      <c r="E124">
+        <v>0.35681933666782162</v>
+      </c>
+      <c r="F124">
+        <v>0.3547761778064808</v>
+      </c>
+      <c r="G124">
+        <v>0.36060478616034181</v>
+      </c>
+      <c r="H124">
+        <v>0.35475635475635481</v>
+      </c>
+      <c r="I124">
+        <v>0.34933897752079568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125">
+        <v>0.55465431513242958</v>
+      </c>
+      <c r="C125">
+        <v>0.55391576785852881</v>
+      </c>
+      <c r="D125">
+        <v>0.55248317856230311</v>
+      </c>
+      <c r="E125">
+        <v>0.54957828547559184</v>
+      </c>
+      <c r="F125">
+        <v>0.54323855605673788</v>
+      </c>
+      <c r="G125">
+        <v>0.55885642260221391</v>
+      </c>
+      <c r="H125">
+        <v>0.55140218585504785</v>
+      </c>
+      <c r="I125">
+        <v>0.54860764164131171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>0.59308523860461881</v>
+      </c>
+      <c r="C126">
+        <v>0.58556152498236036</v>
+      </c>
+      <c r="D126">
+        <v>0.5857779532528411</v>
+      </c>
+      <c r="E126">
+        <v>0.58234833728362267</v>
+      </c>
+      <c r="F126">
+        <v>0.57905944235026718</v>
+      </c>
+      <c r="G126">
+        <v>0.59173566100776709</v>
+      </c>
+      <c r="H126">
+        <v>0.58703812593679516</v>
+      </c>
+      <c r="I126">
+        <v>0.58206664072318637</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127">
+        <v>0.60990718693905921</v>
+      </c>
+      <c r="C127">
+        <v>0.60542205537718519</v>
+      </c>
+      <c r="D127">
+        <v>0.605220503749751</v>
+      </c>
+      <c r="E127">
+        <v>0.60284368007169209</v>
+      </c>
+      <c r="F127">
+        <v>0.59914681290098737</v>
+      </c>
+      <c r="G127">
+        <v>0.60986374537109467</v>
+      </c>
+      <c r="H127">
+        <v>0.60531008079304338</v>
+      </c>
+      <c r="I127">
+        <v>0.60085522247816581</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="C128">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="D128">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="E128">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="F128">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="G128">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="H128">
+        <v>0.6</v>
+      </c>
+      <c r="I128">
+        <v>0.58653198653198657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>0.85050505050505054</v>
+      </c>
+      <c r="C129">
+        <v>0.84915824915824911</v>
+      </c>
+      <c r="D129">
+        <v>0.85252525252525257</v>
+      </c>
+      <c r="E129">
+        <v>0.84915824915824911</v>
+      </c>
+      <c r="F129">
+        <v>0.83905723905723906</v>
+      </c>
+      <c r="G129">
+        <v>0.8484848484848484</v>
+      </c>
+      <c r="H129">
+        <v>0.85993265993265988</v>
+      </c>
+      <c r="I129">
+        <v>0.85252525252525257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130">
+        <v>0.90437710437710439</v>
+      </c>
+      <c r="C130">
+        <v>0.90639730639730642</v>
+      </c>
+      <c r="D130">
+        <v>0.9111111111111112</v>
+      </c>
+      <c r="E130">
+        <v>0.91245791245791241</v>
+      </c>
+      <c r="F130">
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="G130">
+        <v>0.9111111111111112</v>
+      </c>
+      <c r="H130">
+        <v>0.91178451178451181</v>
+      </c>
+      <c r="I130">
+        <v>0.91313131313131324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="C131">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="D131">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="E131">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="F131">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="G131">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="H131">
+        <v>0.92929292929292917</v>
+      </c>
+      <c r="I131">
+        <v>0.92929292929292917</v>
       </c>
     </row>
   </sheetData>
@@ -11478,10 +13282,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEBD0B-6C2A-4EF8-8936-3C4C027D1B7C}">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="AD3" sqref="AD3:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11490,7 +13294,7 @@
     <col min="2" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>84</v>
       </c>
@@ -11536,8 +13340,14 @@
       <c r="AA1" s="21"/>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
-    </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="8" t="s">
         <v>87</v>
@@ -11623,8 +13433,20 @@
       <c r="AC2" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -11700,20 +13522,32 @@
       <c r="Y3" s="10">
         <v>4.3859649122807001E-5</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="Z3" s="10">
         <v>0.34424778761061903</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AA3" s="10">
         <v>0.54778761061946901</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AB3" s="10">
         <v>0.45191435477082248</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AC3" s="10">
         <v>0.42007374631268429</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <v>0.60606060606060597</v>
+      </c>
+      <c r="AE3">
+        <v>0.65639569558761479</v>
+      </c>
+      <c r="AF3">
+        <v>0.62926086449320373</v>
+      </c>
+      <c r="AG3">
+        <v>0.55465431513242958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -11789,20 +13623,32 @@
       <c r="Y4" s="11">
         <v>1.49521531100478E-5</v>
       </c>
-      <c r="Z4" s="28">
+      <c r="Z4" s="11">
         <v>0.62212389380530975</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AA4" s="11">
         <v>0.82477876106194681</v>
       </c>
-      <c r="AB4" s="28">
+      <c r="AB4" s="11">
         <v>0.73948967234156338</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AC4" s="11">
         <v>0.71023598820058997</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <v>0.61212121212121207</v>
+      </c>
+      <c r="AE4">
+        <v>0.66274732375742473</v>
+      </c>
+      <c r="AF4">
+        <v>0.6337601998743978</v>
+      </c>
+      <c r="AG4">
+        <v>0.55885642260221391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
@@ -11878,20 +13724,32 @@
       <c r="Y5" s="15">
         <v>4.4956140350869999E-4</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="Z5" s="11">
         <v>0.61327433628318573</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="AA5" s="11">
         <v>0.81592920353982312</v>
       </c>
-      <c r="AB5" s="28">
+      <c r="AB5" s="11">
         <v>0.73212857139942233</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="11">
         <v>0.70324483775811208</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <v>0.59461279461279459</v>
+      </c>
+      <c r="AE5">
+        <v>0.63900043652568894</v>
+      </c>
+      <c r="AF5">
+        <v>0.61658245862448635</v>
+      </c>
+      <c r="AG5">
+        <v>0.54323855605673788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
@@ -11967,20 +13825,32 @@
       <c r="Y6" s="11">
         <v>3.2894736842099999E-4</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="Z6" s="11">
         <v>0.62212389380530975</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="AA6" s="11">
         <v>0.82654867256637166</v>
       </c>
-      <c r="AB6" s="28">
+      <c r="AB6" s="11">
         <v>0.74167904013767016</v>
       </c>
-      <c r="AC6" s="28">
+      <c r="AC6" s="11">
         <v>0.71246312684365765</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <v>0.60538720538720536</v>
+      </c>
+      <c r="AE6">
+        <v>0.65580942626397176</v>
+      </c>
+      <c r="AF6">
+        <v>0.62856675784980909</v>
+      </c>
+      <c r="AG6">
+        <v>0.55391576785852881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -12056,20 +13926,32 @@
       <c r="Y7" s="11">
         <v>0</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="Z7" s="11">
         <v>0.61592920353982294</v>
       </c>
-      <c r="AA7" s="28">
+      <c r="AA7" s="11">
         <v>0.82743362831858391</v>
       </c>
-      <c r="AB7" s="28">
+      <c r="AB7" s="11">
         <v>0.73992854309119571</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AC7" s="11">
         <v>0.70977876106194693</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <v>0.60404040404040416</v>
+      </c>
+      <c r="AE7">
+        <v>0.65156188368309587</v>
+      </c>
+      <c r="AF7">
+        <v>0.62533947681908519</v>
+      </c>
+      <c r="AG7">
+        <v>0.54957828547559184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -12145,20 +14027,32 @@
       <c r="Y8" s="16">
         <v>1.2260765550239001E-3</v>
       </c>
-      <c r="Z8" s="24">
+      <c r="Z8" s="15">
         <v>0.62566371681415922</v>
       </c>
-      <c r="AA8" s="25">
+      <c r="AA8" s="16">
         <v>0.83628318584070782</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="15">
         <v>0.74872040639660964</v>
       </c>
-      <c r="AC8" s="24">
+      <c r="AC8" s="15">
         <v>0.71861356932153397</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <v>0.59865319865319877</v>
+      </c>
+      <c r="AE8">
+        <v>0.65528643074097626</v>
+      </c>
+      <c r="AF8">
+        <v>0.62749059585687361</v>
+      </c>
+      <c r="AG8">
+        <v>0.55248317856230311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -12234,20 +14128,32 @@
       <c r="Y9" s="11">
         <v>1.3157894736839999E-4</v>
       </c>
-      <c r="Z9" s="25">
+      <c r="Z9" s="16">
         <v>0.63185840707964602</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="15">
         <v>0.83539823008849567</v>
       </c>
-      <c r="AB9" s="25">
+      <c r="AB9" s="16">
         <v>0.7500509685462633</v>
       </c>
-      <c r="AC9" s="25">
+      <c r="AC9" s="16">
         <v>0.72072271386430675</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <v>0.6</v>
+      </c>
+      <c r="AE9">
+        <v>0.65810557941871062</v>
+      </c>
+      <c r="AF9">
+        <v>0.62775076790687012</v>
+      </c>
+      <c r="AG9">
+        <v>0.55140218585504785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>83</v>
       </c>
@@ -12323,21 +14229,34 @@
       <c r="Y10" s="12">
         <v>8.8079986149584404E-5</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="Z10" s="14">
         <v>0.63185840707964602</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AA10" s="12">
         <v>0.82389380530973444</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AB10" s="12">
         <v>0.74347147090489041</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="12">
         <v>0.71584070796460164</v>
       </c>
+      <c r="AD10">
+        <v>0.58653198653198657</v>
+      </c>
+      <c r="AE10">
+        <v>0.65660608190911218</v>
+      </c>
+      <c r="AF10">
+        <v>0.62544226813109483</v>
+      </c>
+      <c r="AG10">
+        <v>0.54860764164131171</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AC1"/>

--- a/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
+++ b/output/SemEval-14/Restaurants/agg.pred.eval.mean.20.0.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farinam\PycharmProjects\LADy\output\SemEval-14\Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76E9D57-96F2-43F8-9AB8-9C5290BD305A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD43E6EA-7AA5-40F5-90A7-1AABF942F01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
+    <workbookView xWindow="11550" yWindow="1785" windowWidth="16110" windowHeight="12990" activeTab="2" xr2:uid="{1230938A-22E1-464A-B275-4F8E3DAF70F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -651,10 +651,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,11 +663,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13284,8 +13370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEBD0B-6C2A-4EF8-8936-3C4C027D1B7C}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AG10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13298,54 +13384,54 @@
       <c r="A1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="22"/>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="20" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
       <c r="U1" s="22"/>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21" t="s">
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21" t="s">
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
@@ -13534,16 +13620,16 @@
       <c r="AC3" s="10">
         <v>0.42007374631268429</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="18">
         <v>0.60606060606060597</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="10">
         <v>0.65639569558761479</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="18">
         <v>0.62926086449320373</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="18">
         <v>0.55465431513242958</v>
       </c>
     </row>
@@ -13635,16 +13721,16 @@
       <c r="AC4" s="11">
         <v>0.71023598820058997</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="16">
         <v>0.61212121212121207</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="15">
         <v>0.66274732375742473</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="16">
         <v>0.6337601998743978</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="16">
         <v>0.55885642260221391</v>
       </c>
     </row>
@@ -13736,16 +13822,16 @@
       <c r="AC5" s="11">
         <v>0.70324483775811208</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="11">
         <v>0.59461279461279459</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="11">
         <v>0.63900043652568894</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="11">
         <v>0.61658245862448635</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="11">
         <v>0.54323855605673788</v>
       </c>
     </row>
@@ -13837,16 +13923,16 @@
       <c r="AC6" s="11">
         <v>0.71246312684365765</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="11">
         <v>0.60538720538720536</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="11">
         <v>0.65580942626397176</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="11">
         <v>0.62856675784980909</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="11">
         <v>0.55391576785852881</v>
       </c>
     </row>
@@ -13938,16 +14024,16 @@
       <c r="AC7" s="11">
         <v>0.70977876106194693</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="11">
         <v>0.60404040404040416</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="11">
         <v>0.65156188368309587</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="11">
         <v>0.62533947681908519</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="11">
         <v>0.54957828547559184</v>
       </c>
     </row>
@@ -14039,16 +14125,16 @@
       <c r="AC8" s="15">
         <v>0.71861356932153397</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="24">
         <v>0.59865319865319877</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="24">
         <v>0.65528643074097626</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="24">
         <v>0.62749059585687361</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="24">
         <v>0.55248317856230311</v>
       </c>
     </row>
@@ -14140,16 +14226,16 @@
       <c r="AC9" s="16">
         <v>0.72072271386430675</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="24">
         <v>0.6</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="16">
         <v>0.65810557941871062</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="24">
         <v>0.62775076790687012</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="24">
         <v>0.55140218585504785</v>
       </c>
     </row>
@@ -14239,18 +14325,18 @@
         <v>0.74347147090489041</v>
       </c>
       <c r="AC10" s="12">
-        <v>0.71584070796460164</v>
-      </c>
-      <c r="AD10">
+        <v>0.71584070796460197</v>
+      </c>
+      <c r="AD10" s="25">
         <v>0.58653198653198657</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="12">
         <v>0.65660608190911218</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="12">
         <v>0.62544226813109483</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="12">
         <v>0.54860764164131171</v>
       </c>
     </row>
@@ -14267,6 +14353,46 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B10">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E10">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F10">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -14276,7 +14402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
+  <conditionalFormatting sqref="G3:G10">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -14286,7 +14412,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
+  <conditionalFormatting sqref="H3:H10">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -14296,7 +14422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E10">
+  <conditionalFormatting sqref="I3:I10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -14306,7 +14432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F10">
+  <conditionalFormatting sqref="J3:J10">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -14316,7 +14442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G10">
+  <conditionalFormatting sqref="K3:K10">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -14326,7 +14452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H10">
+  <conditionalFormatting sqref="L3:L10">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -14336,7 +14462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I10">
+  <conditionalFormatting sqref="M3:M10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -14346,7 +14472,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J10">
+  <conditionalFormatting sqref="N3:N10">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -14356,7 +14482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K10">
+  <conditionalFormatting sqref="O3:O10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -14366,7 +14492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L10">
+  <conditionalFormatting sqref="P3:P10">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -14376,7 +14502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M10">
+  <conditionalFormatting sqref="Q3:Q10">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -14386,7 +14512,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N10">
+  <conditionalFormatting sqref="R3:R10">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -14396,7 +14522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O10">
+  <conditionalFormatting sqref="S3:S10">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -14406,7 +14532,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P10">
+  <conditionalFormatting sqref="T3:T10">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -14416,7 +14542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q10">
+  <conditionalFormatting sqref="U3:U10">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -14426,7 +14552,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R10">
+  <conditionalFormatting sqref="V3:V10">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -14436,7 +14562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S10">
+  <conditionalFormatting sqref="W3:W10">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -14446,7 +14572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T10">
+  <conditionalFormatting sqref="X3:X10">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -14456,7 +14582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U10">
+  <conditionalFormatting sqref="Y3:Y10">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -14466,56 +14592,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V10">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="Z3:Z10">
+    <cfRule type="top10" dxfId="11" priority="8" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W3:W10">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="AA3:AA10">
+    <cfRule type="top10" dxfId="10" priority="7" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X10">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="AB3:AB10">
+    <cfRule type="top10" dxfId="9" priority="6" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y10">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="7"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="AC3:AC10">
+    <cfRule type="top10" dxfId="8" priority="5" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z10">
+  <conditionalFormatting sqref="AD3:AD10">
     <cfRule type="top10" dxfId="3" priority="4" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA10">
+  <conditionalFormatting sqref="AE3:AE10">
     <cfRule type="top10" dxfId="2" priority="3" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AB10">
+  <conditionalFormatting sqref="AF3:AF10">
     <cfRule type="top10" dxfId="1" priority="2" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC3:AC10">
+  <conditionalFormatting sqref="AG3:AG10">
     <cfRule type="top10" dxfId="0" priority="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
